--- a/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
+++ b/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Date that the competent minister received the COSEWIC assessment</t>
-  </si>
-  <si>
-    <t>Date that the Governer in Council received the recommendation from the Minister of the Environment</t>
   </si>
   <si>
     <t>Date that the competent minister provided a recommendation based on the COSEWIC assessment</t>
@@ -1794,9 +1791,6 @@
     <t>Date that the species was added to SARA Schedule 1</t>
   </si>
   <si>
-    <t>Date that the Governer in Council amended SARA Schedule 1 to incorporate the species</t>
-  </si>
-  <si>
     <t>Extracted from SAR Data Management System under 'Legal List'</t>
   </si>
   <si>
@@ -2284,6 +2278,12 @@
   </si>
   <si>
     <t>Note that "NE" means Not Extracted throughout the database and indicates that the data has not been extracted but could be</t>
+  </si>
+  <si>
+    <t>Date that the Governor in Council received the recommendation from the Minister of the Environment</t>
+  </si>
+  <si>
+    <t>Date that the Governor in Council amended SARA Schedule 1 to incorporate the species</t>
   </si>
 </sst>
 </file>
@@ -2568,11 +2568,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3004,7 +3004,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="72">
       <c r="A1" s="34" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3034,13 +3034,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>19</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>19</v>
@@ -3090,7 +3090,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>4</v>
@@ -3115,7 +3115,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>4</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D7" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>368</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>370</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -3166,10 +3166,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>8</v>
@@ -3192,13 +3192,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="10" spans="1:15" ht="43.2">
       <c r="A10" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="25" t="s">
@@ -3238,16 +3238,16 @@
     </row>
     <row r="11" spans="1:15" ht="28.8">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -3263,13 +3263,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>7</v>
@@ -3288,16 +3288,16 @@
     </row>
     <row r="13" spans="1:15" ht="28.8">
       <c r="A13" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="14" spans="1:15" ht="28.8">
       <c r="A14" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="25" t="s">
@@ -3332,13 +3332,13 @@
     </row>
     <row r="15" spans="1:15" ht="43.2">
       <c r="A15" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>13</v>
@@ -3357,13 +3357,13 @@
     </row>
     <row r="16" spans="1:15" ht="28.8">
       <c r="A16" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>13</v>
@@ -3382,64 +3382,64 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="I17" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="J17" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="K17" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="L17" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="M17" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="N17" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="O17" s="25" t="s">
         <v>475</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8">
       <c r="A18" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -3459,16 +3459,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -3490,16 +3490,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -3516,19 +3516,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -3548,13 +3548,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="25"/>
@@ -3575,13 +3575,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="25"/>
@@ -3599,16 +3599,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="25"/>
@@ -3623,13 +3623,13 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>8</v>
@@ -3644,10 +3644,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="26" spans="1:17" ht="72">
       <c r="A26" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I26" s="25"/>
       <c r="K26" s="25"/>
@@ -3677,19 +3677,19 @@
     </row>
     <row r="27" spans="1:17" ht="57.6">
       <c r="A27" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -3704,19 +3704,19 @@
     </row>
     <row r="28" spans="1:17" ht="57.6">
       <c r="A28" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="D28" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -3731,19 +3731,19 @@
     </row>
     <row r="29" spans="1:17" ht="57.6">
       <c r="A29" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -3758,19 +3758,19 @@
     </row>
     <row r="30" spans="1:17" ht="57.6">
       <c r="A30" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -3785,19 +3785,19 @@
     </row>
     <row r="31" spans="1:17" ht="57.6">
       <c r="A31" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>483</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -3812,19 +3812,19 @@
     </row>
     <row r="32" spans="1:17" ht="57.6">
       <c r="A32" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>321</v>
+        <v>484</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
@@ -3839,28 +3839,28 @@
     </row>
     <row r="33" spans="1:15" ht="57.6">
       <c r="A33" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D33" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="G33" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>396</v>
-      </c>
       <c r="H33" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
@@ -3874,16 +3874,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -3898,19 +3898,19 @@
     </row>
     <row r="35" spans="1:15" ht="57.6">
       <c r="A35" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>326</v>
-      </c>
       <c r="C35" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="E35" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
@@ -3919,13 +3919,13 @@
     </row>
     <row r="36" spans="1:15" ht="57.6">
       <c r="A36" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
@@ -3934,19 +3934,19 @@
     </row>
     <row r="37" spans="1:15" ht="57.6">
       <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="C37" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
@@ -3955,19 +3955,19 @@
     </row>
     <row r="38" spans="1:15" ht="43.2">
       <c r="A38" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>330</v>
-      </c>
       <c r="D38" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -3976,13 +3976,13 @@
     </row>
     <row r="39" spans="1:15" ht="57.6">
       <c r="A39" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
@@ -3991,19 +3991,19 @@
     </row>
     <row r="40" spans="1:15" ht="28.8">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -4018,19 +4018,19 @@
     </row>
     <row r="41" spans="1:15" ht="43.2">
       <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>113</v>
-      </c>
       <c r="C41" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -4048,10 +4048,10 @@
         <v>27</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>13</v>
@@ -4073,10 +4073,10 @@
         <v>52</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>13</v>
@@ -4095,13 +4095,13 @@
     </row>
     <row r="44" spans="1:15" ht="58.2" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>421</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>423</v>
       </c>
       <c r="D44" s="27">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
@@ -4125,13 +4125,13 @@
     </row>
     <row r="45" spans="1:15" ht="101.4" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D45" s="27">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="25"/>
@@ -4155,13 +4155,13 @@
     </row>
     <row r="46" spans="1:15" ht="101.4" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D46" s="27">
         <v>0</v>
@@ -4170,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
@@ -4185,13 +4185,13 @@
     </row>
     <row r="47" spans="1:15" ht="101.4" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D47" s="27">
         <v>0</v>
@@ -4200,21 +4200,21 @@
         <v>1</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="101.4" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D48" s="27">
         <v>0</v>
@@ -4223,10 +4223,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="187.2">
@@ -4234,10 +4234,10 @@
         <v>28</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>13</v>
@@ -4247,16 +4247,16 @@
     </row>
     <row r="50" spans="1:16" ht="100.8">
       <c r="A50" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>118</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="26"/>
@@ -4266,24 +4266,24 @@
         <v>26</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="72">
       <c r="A52" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D52" s="1">
         <v>1.1000000000000001</v>
@@ -4292,7 +4292,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -4306,19 +4306,19 @@
     </row>
     <row r="53" spans="1:16" ht="28.8">
       <c r="A53" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
@@ -4332,19 +4332,19 @@
     </row>
     <row r="54" spans="1:16" ht="28.8">
       <c r="A54" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4359,19 +4359,19 @@
     </row>
     <row r="55" spans="1:16" ht="28.8">
       <c r="A55" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G55" s="1"/>
       <c r="I55" s="1"/>
@@ -4384,31 +4384,31 @@
     </row>
     <row r="56" spans="1:16" ht="28.8">
       <c r="A56" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
@@ -4419,31 +4419,31 @@
     </row>
     <row r="57" spans="1:16" ht="28.8">
       <c r="A57" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="H57" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>415</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J57" s="26"/>
       <c r="K57" s="26"/>
@@ -4454,19 +4454,19 @@
     </row>
     <row r="58" spans="1:16" ht="28.8">
       <c r="A58" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4481,19 +4481,19 @@
     </row>
     <row r="59" spans="1:16" ht="28.8">
       <c r="A59" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G59" s="1"/>
       <c r="I59" s="1"/>
@@ -4506,13 +4506,13 @@
     </row>
     <row r="60" spans="1:16" ht="158.4">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>13</v>
@@ -4531,13 +4531,13 @@
     </row>
     <row r="61" spans="1:16" ht="158.4">
       <c r="A61" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D61" s="24">
         <v>0</v>
@@ -4560,16 +4560,16 @@
     </row>
     <row r="62" spans="1:16" ht="72">
       <c r="A62" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>29</v>
@@ -4590,29 +4590,29 @@
         <v>34</v>
       </c>
       <c r="K62" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
     <row r="63" spans="1:16" ht="72">
       <c r="A63" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>35</v>
@@ -4633,29 +4633,29 @@
         <v>34</v>
       </c>
       <c r="K63" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="L63" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="L63" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
     <row r="64" spans="1:16" ht="115.2">
       <c r="A64" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>40</v>
@@ -4676,29 +4676,29 @@
         <v>45</v>
       </c>
       <c r="K64" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="L64" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="L64" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
     <row r="65" spans="1:15" ht="72">
       <c r="A65" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>46</v>
@@ -4716,13 +4716,13 @@
         <v>50</v>
       </c>
       <c r="J65" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="K65" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="M65" s="25"/>
       <c r="N65" s="25"/>
@@ -4730,36 +4730,36 @@
     </row>
     <row r="66" spans="1:15" ht="28.8">
       <c r="A66" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="43.2">
       <c r="A67" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4868,10 +4868,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -4879,178 +4879,178 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="58.2" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5080,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5109,12 +5109,12 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="6"/>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -5175,13 +5175,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -5205,16 +5205,16 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -5240,14 +5240,14 @@
     <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>134</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>135</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5274,7 +5274,7 @@
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -5302,14 +5302,14 @@
     <row r="8" spans="1:25" ht="14.25" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>138</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>139</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5336,7 +5336,7 @@
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -5364,14 +5364,14 @@
     <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>142</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>143</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5398,7 +5398,7 @@
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -5424,16 +5424,16 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -5459,11 +5459,11 @@
     <row r="13" spans="1:25" ht="14.25" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="6"/>
@@ -5491,7 +5491,7 @@
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -5519,14 +5519,14 @@
     <row r="15" spans="1:25" ht="14.25" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>152</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>153</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -5553,7 +5553,7 @@
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -5581,14 +5581,14 @@
     <row r="17" spans="1:25" ht="14.25" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>156</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>157</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -5615,7 +5615,7 @@
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
@@ -5643,14 +5643,14 @@
     <row r="19" spans="1:25" ht="14.25" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>160</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -5677,7 +5677,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -5703,16 +5703,16 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -5738,14 +5738,14 @@
     <row r="22" spans="1:25" ht="14.25" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>167</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>168</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -5772,7 +5772,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -5800,14 +5800,14 @@
     <row r="24" spans="1:25" ht="14.25" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="39" t="s">
         <v>171</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>172</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -5834,7 +5834,7 @@
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -5862,14 +5862,14 @@
     <row r="26" spans="1:25" ht="14.25" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>175</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>176</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -5896,7 +5896,7 @@
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -5922,16 +5922,16 @@
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -5957,14 +5957,14 @@
     <row r="29" spans="1:25" ht="14.25" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>182</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>183</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -5991,7 +5991,7 @@
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -6019,14 +6019,14 @@
     <row r="31" spans="1:25" ht="14.25" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>187</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -6053,7 +6053,7 @@
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -6081,14 +6081,14 @@
     <row r="33" spans="1:25" ht="14.25" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="39" t="s">
         <v>190</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>191</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -6115,7 +6115,7 @@
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -6143,14 +6143,14 @@
     <row r="35" spans="1:25" ht="14.25" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="39" t="s">
         <v>194</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>195</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -6177,7 +6177,7 @@
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -6203,16 +6203,16 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -6238,14 +6238,14 @@
     <row r="38" spans="1:25" ht="14.25" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>201</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>202</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -6272,7 +6272,7 @@
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
@@ -6300,14 +6300,14 @@
     <row r="40" spans="1:25" ht="14.25" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>205</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>206</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -6334,7 +6334,7 @@
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -6362,14 +6362,14 @@
     <row r="42" spans="1:25" ht="14.25" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="39" t="s">
         <v>209</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>210</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -6396,7 +6396,7 @@
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" s="38"/>
       <c r="E43" s="38"/>
@@ -6424,14 +6424,14 @@
     <row r="44" spans="1:25" ht="14.25" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="39" t="s">
         <v>213</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>214</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -6458,7 +6458,7 @@
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
@@ -6484,16 +6484,16 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -6519,14 +6519,14 @@
     <row r="47" spans="1:25" ht="14.25" customHeight="1">
       <c r="A47" s="18"/>
       <c r="B47" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="39" t="s">
         <v>220</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>221</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -6553,7 +6553,7 @@
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
@@ -6581,14 +6581,14 @@
     <row r="49" spans="1:25" ht="14.25" customHeight="1">
       <c r="A49" s="18"/>
       <c r="B49" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="39" t="s">
         <v>224</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>225</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6615,7 +6615,7 @@
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
@@ -6643,14 +6643,14 @@
     <row r="51" spans="1:25" ht="14.25" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>229</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -6677,7 +6677,7 @@
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
@@ -6703,16 +6703,16 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="13" t="s">
+      <c r="E53" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -6738,14 +6738,14 @@
     <row r="54" spans="1:25" ht="14.25" customHeight="1">
       <c r="A54" s="18"/>
       <c r="B54" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>236</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -6772,7 +6772,7 @@
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
@@ -6800,14 +6800,14 @@
     <row r="56" spans="1:25" ht="14.25" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="39" t="s">
         <v>239</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>240</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -6834,7 +6834,7 @@
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D57" s="38"/>
       <c r="E57" s="38"/>
@@ -6862,11 +6862,11 @@
     <row r="58" spans="1:25" ht="14.25" customHeight="1">
       <c r="A58" s="18"/>
       <c r="B58" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="6"/>
@@ -6894,7 +6894,7 @@
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
@@ -6920,16 +6920,16 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -6955,14 +6955,14 @@
     <row r="61" spans="1:25" ht="14.25" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" s="39" t="s">
         <v>249</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>250</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -6989,7 +6989,7 @@
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
@@ -7017,14 +7017,14 @@
     <row r="63" spans="1:25" ht="14.25" customHeight="1">
       <c r="A63" s="18"/>
       <c r="B63" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" s="39" t="s">
         <v>253</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>254</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -7051,7 +7051,7 @@
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="38"/>
@@ -7079,14 +7079,14 @@
     <row r="65" spans="1:25" ht="14.25" customHeight="1">
       <c r="A65" s="18"/>
       <c r="B65" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="39" t="s">
         <v>257</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>258</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -7113,7 +7113,7 @@
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
@@ -7139,16 +7139,16 @@
       <c r="Y66" s="6"/>
     </row>
     <row r="67" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="13" t="s">
+      <c r="E67" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -7174,14 +7174,14 @@
     <row r="68" spans="1:25" ht="14.25" customHeight="1">
       <c r="A68" s="18"/>
       <c r="B68" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="39" t="s">
         <v>264</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>265</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -7208,7 +7208,7 @@
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
@@ -7236,14 +7236,14 @@
     <row r="70" spans="1:25" ht="14.25" customHeight="1">
       <c r="A70" s="18"/>
       <c r="B70" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" s="39" t="s">
         <v>268</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>269</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -7270,7 +7270,7 @@
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
@@ -7298,14 +7298,14 @@
     <row r="72" spans="1:25" ht="14.25" customHeight="1">
       <c r="A72" s="18"/>
       <c r="B72" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E72" s="39" t="s">
         <v>272</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>273</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -7332,7 +7332,7 @@
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D73" s="38"/>
       <c r="E73" s="38"/>
@@ -7360,14 +7360,14 @@
     <row r="74" spans="1:25" ht="14.25" customHeight="1">
       <c r="A74" s="18"/>
       <c r="B74" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="E74" s="39" t="s">
         <v>276</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>277</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -7394,7 +7394,7 @@
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D75" s="38"/>
       <c r="E75" s="38"/>
@@ -7422,14 +7422,14 @@
     <row r="76" spans="1:25" ht="14.25" customHeight="1">
       <c r="A76" s="18"/>
       <c r="B76" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" s="39" t="s">
         <v>280</v>
-      </c>
-      <c r="E76" s="39" t="s">
-        <v>281</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -7456,7 +7456,7 @@
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D77" s="38"/>
       <c r="E77" s="38"/>
@@ -7484,14 +7484,14 @@
     <row r="78" spans="1:25" ht="14.25" customHeight="1">
       <c r="A78" s="18"/>
       <c r="B78" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>284</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>285</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -7518,7 +7518,7 @@
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -7544,16 +7544,16 @@
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="13" t="s">
+      <c r="E80" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -7579,11 +7579,11 @@
     <row r="81" spans="1:25" ht="14.25" customHeight="1">
       <c r="A81" s="18"/>
       <c r="B81" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E81" s="39"/>
       <c r="F81" s="6"/>
@@ -7611,7 +7611,7 @@
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -7639,11 +7639,11 @@
     <row r="83" spans="1:25" ht="14.25" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="6"/>
@@ -7671,7 +7671,7 @@
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="38"/>
@@ -7699,11 +7699,11 @@
     <row r="85" spans="1:25" ht="14.25" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="6"/>
@@ -7731,7 +7731,7 @@
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D86" s="38"/>
       <c r="E86" s="38"/>
@@ -7757,16 +7757,16 @@
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="13" t="s">
+      <c r="E87" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -7792,14 +7792,14 @@
     <row r="88" spans="1:25" ht="14.25" customHeight="1">
       <c r="A88" s="18"/>
       <c r="B88" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E88" s="39" t="s">
         <v>303</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>304</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -7826,7 +7826,7 @@
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D89" s="38"/>
       <c r="E89" s="38"/>
@@ -7854,11 +7854,11 @@
     <row r="90" spans="1:25" ht="14.25" customHeight="1">
       <c r="A90" s="18"/>
       <c r="B90" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="6"/>
@@ -7886,7 +7886,7 @@
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
@@ -7914,11 +7914,11 @@
     <row r="92" spans="1:25" ht="14.25" customHeight="1">
       <c r="A92" s="18"/>
       <c r="B92" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="6"/>
@@ -7946,7 +7946,7 @@
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D93" s="38"/>
       <c r="E93" s="38"/>
@@ -7974,11 +7974,11 @@
     <row r="94" spans="1:25" ht="14.25" customHeight="1">
       <c r="A94" s="18"/>
       <c r="B94" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="6"/>
@@ -8006,10 +8006,10 @@
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+        <v>313</v>
+      </c>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -14138,44 +14138,85 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="E65:E66"/>
@@ -14190,85 +14231,44 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>

--- a/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
+++ b/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10128"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7968"/>
   </bookViews>
   <sheets>
     <sheet name="Database Fields" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="491">
   <si>
     <t>Column header</t>
   </si>
@@ -1791,9 +1791,6 @@
     <t>Date that the species was added to SARA Schedule 1</t>
   </si>
   <si>
-    <t>Extracted from SAR Data Management System under 'Legal List'</t>
-  </si>
-  <si>
     <t>Outreach and stewardship</t>
   </si>
   <si>
@@ -1989,9 +1986,6 @@
     <t>Provinces, territories or oceans where the species is present</t>
   </si>
   <si>
-    <t>Extracted from SAR Data Management System under 'Legal List' or from the status report</t>
-  </si>
-  <si>
     <t>NA if not a status report</t>
   </si>
   <si>
@@ -2284,6 +2278,31 @@
   </si>
   <si>
     <t>Date that the Governor in Council amended SARA Schedule 1 to incorporate the species</t>
+  </si>
+  <si>
+    <t>Extracted from SARB (Species at Risk Branch) database under 'Legal List' or from the status report</t>
+  </si>
+  <si>
+    <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under Last assessment date)</t>
+  </si>
+  <si>
+    <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under Date added)</t>
+  </si>
+  <si>
+    <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under Last minister's receipt date)</t>
+  </si>
+  <si>
+    <t>Extracted from the SARB database under 'Legal List' (Can also be found in the Response Statement, available on the SAR Public Registry Species Profile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracted from the SARB database under 'Legal List' ( Can also be found in the Order Acknowledging Receipt of the Assessment Done Pursuant to Subsection 23(1) of the Act, available on the SAR Public Registry Species Profile)
+</t>
+  </si>
+  <si>
+    <t>Extracted from the SARB database under 'Legal List'  ( Can also be found in the Order Amending Schedules 1 to 3 to the Species at Risk Act, available on the SAR Public Registry Species Profile)</t>
+  </si>
+  <si>
+    <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under GIC Decision)</t>
   </si>
 </sst>
 </file>
@@ -2568,11 +2587,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2986,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3004,7 +3023,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="72">
       <c r="A1" s="34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3034,13 +3053,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>19</v>
@@ -3059,13 +3078,13 @@
     </row>
     <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>19</v>
@@ -3090,7 +3109,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>4</v>
@@ -3115,7 +3134,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>4</v>
@@ -3134,22 +3153,22 @@
     </row>
     <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="D7" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="26" t="s">
         <v>367</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>368</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -3166,10 +3185,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>8</v>
@@ -3192,13 +3211,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>371</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>372</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3215,10 +3234,10 @@
     </row>
     <row r="10" spans="1:15" ht="43.2">
       <c r="A10" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="25" t="s">
@@ -3238,16 +3257,16 @@
     </row>
     <row r="11" spans="1:15" ht="28.8">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>375</v>
-      </c>
       <c r="D11" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -3263,13 +3282,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>7</v>
@@ -3288,16 +3307,16 @@
     </row>
     <row r="13" spans="1:15" ht="28.8">
       <c r="A13" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -3313,10 +3332,10 @@
     </row>
     <row r="14" spans="1:15" ht="28.8">
       <c r="A14" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="25" t="s">
@@ -3332,13 +3351,13 @@
     </row>
     <row r="15" spans="1:15" ht="43.2">
       <c r="A15" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>13</v>
@@ -3357,13 +3376,13 @@
     </row>
     <row r="16" spans="1:15" ht="28.8">
       <c r="A16" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>13</v>
@@ -3382,55 +3401,55 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="I17" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="J17" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="K17" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="L17" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="M17" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="N17" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="O17" s="25" t="s">
         <v>473</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8">
       <c r="A18" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>69</v>
@@ -3439,7 +3458,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -3468,7 +3487,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -3499,7 +3518,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -3528,7 +3547,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -3554,7 +3573,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="25"/>
@@ -3581,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="25"/>
@@ -3608,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="25"/>
@@ -3623,10 +3642,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>318</v>
@@ -3647,7 +3666,7 @@
         <v>118</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -3657,16 +3676,16 @@
     </row>
     <row r="26" spans="1:17" ht="72">
       <c r="A26" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I26" s="25"/>
       <c r="K26" s="25"/>
@@ -3677,19 +3696,19 @@
     </row>
     <row r="27" spans="1:17" ht="57.6">
       <c r="A27" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>320</v>
+        <v>484</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -3704,19 +3723,19 @@
     </row>
     <row r="28" spans="1:17" ht="57.6">
       <c r="A28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>320</v>
+        <v>485</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -3731,19 +3750,19 @@
     </row>
     <row r="29" spans="1:17" ht="57.6">
       <c r="A29" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>320</v>
+        <v>486</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -3758,19 +3777,19 @@
     </row>
     <row r="30" spans="1:17" ht="57.6">
       <c r="A30" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>320</v>
+        <v>487</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -3783,21 +3802,21 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:17" ht="57.6">
+    <row r="31" spans="1:17" ht="72">
       <c r="A31" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>320</v>
+        <v>488</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -3812,19 +3831,19 @@
     </row>
     <row r="32" spans="1:17" ht="57.6">
       <c r="A32" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
@@ -3839,28 +3858,28 @@
     </row>
     <row r="33" spans="1:15" ht="57.6">
       <c r="A33" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="D33" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="G33" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>394</v>
-      </c>
       <c r="H33" s="27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
@@ -3877,13 +3896,13 @@
         <v>68</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>73</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -3898,10 +3917,10 @@
     </row>
     <row r="35" spans="1:15" ht="57.6">
       <c r="A35" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>109</v>
@@ -3910,7 +3929,7 @@
         <v>110</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
@@ -3919,13 +3938,13 @@
     </row>
     <row r="36" spans="1:15" ht="57.6">
       <c r="A36" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
@@ -3946,7 +3965,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
@@ -3955,19 +3974,19 @@
     </row>
     <row r="38" spans="1:15" ht="43.2">
       <c r="A38" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -3976,13 +3995,13 @@
     </row>
     <row r="39" spans="1:15" ht="57.6">
       <c r="A39" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
@@ -3997,13 +4016,13 @@
         <v>108</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>110</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -4024,13 +4043,13 @@
         <v>112</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>110</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -4048,10 +4067,10 @@
         <v>27</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>13</v>
@@ -4076,7 +4095,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>13</v>
@@ -4095,13 +4114,13 @@
     </row>
     <row r="44" spans="1:15" ht="58.2" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>419</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>421</v>
       </c>
       <c r="D44" s="27">
         <v>0</v>
@@ -4110,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
@@ -4125,13 +4144,13 @@
     </row>
     <row r="45" spans="1:15" ht="101.4" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D45" s="27">
         <v>0</v>
@@ -4140,10 +4159,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="25"/>
@@ -4155,13 +4174,13 @@
     </row>
     <row r="46" spans="1:15" ht="101.4" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D46" s="27">
         <v>0</v>
@@ -4170,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
@@ -4185,13 +4204,13 @@
     </row>
     <row r="47" spans="1:15" ht="101.4" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D47" s="27">
         <v>0</v>
@@ -4200,21 +4219,21 @@
         <v>1</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="101.4" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D48" s="27">
         <v>0</v>
@@ -4223,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="187.2">
@@ -4237,7 +4256,7 @@
         <v>63</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>13</v>
@@ -4253,7 +4272,7 @@
         <v>116</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>117</v>
@@ -4266,7 +4285,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>13</v>
@@ -4277,13 +4296,13 @@
     </row>
     <row r="52" spans="1:16" ht="72">
       <c r="A52" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D52" s="1">
         <v>1.1000000000000001</v>
@@ -4292,7 +4311,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -4306,19 +4325,19 @@
     </row>
     <row r="53" spans="1:16" ht="28.8">
       <c r="A53" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
@@ -4332,19 +4351,19 @@
     </row>
     <row r="54" spans="1:16" ht="28.8">
       <c r="A54" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4359,19 +4378,19 @@
     </row>
     <row r="55" spans="1:16" ht="28.8">
       <c r="A55" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G55" s="1"/>
       <c r="I55" s="1"/>
@@ -4384,31 +4403,31 @@
     </row>
     <row r="56" spans="1:16" ht="28.8">
       <c r="A56" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
@@ -4419,31 +4438,31 @@
     </row>
     <row r="57" spans="1:16" ht="28.8">
       <c r="A57" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="H57" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>413</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J57" s="26"/>
       <c r="K57" s="26"/>
@@ -4454,19 +4473,19 @@
     </row>
     <row r="58" spans="1:16" ht="28.8">
       <c r="A58" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4481,19 +4500,19 @@
     </row>
     <row r="59" spans="1:16" ht="28.8">
       <c r="A59" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G59" s="1"/>
       <c r="I59" s="1"/>
@@ -4509,10 +4528,10 @@
         <v>121</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>13</v>
@@ -4531,13 +4550,13 @@
     </row>
     <row r="61" spans="1:16" ht="158.4">
       <c r="A61" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D61" s="24">
         <v>0</v>
@@ -4566,10 +4585,10 @@
         <v>64</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>29</v>
@@ -4590,13 +4609,13 @@
         <v>34</v>
       </c>
       <c r="K62" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
@@ -4609,10 +4628,10 @@
         <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>35</v>
@@ -4633,13 +4652,13 @@
         <v>34</v>
       </c>
       <c r="K63" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="L63" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="L63" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
@@ -4652,10 +4671,10 @@
         <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>40</v>
@@ -4676,13 +4695,13 @@
         <v>45</v>
       </c>
       <c r="K64" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="L64" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="L64" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
@@ -4695,10 +4714,10 @@
         <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>46</v>
@@ -4716,13 +4735,13 @@
         <v>50</v>
       </c>
       <c r="J65" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="K65" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="M65" s="25"/>
       <c r="N65" s="25"/>
@@ -4730,36 +4749,36 @@
     </row>
     <row r="66" spans="1:15" ht="28.8">
       <c r="A66" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="43.2">
       <c r="A67" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4790,7 @@
       <formula>C24&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49 B20:C20 B4:C4 B27:C32 B64:C65 C50 B60:C62 B12:C18 C19:C23 C25:C26 C28:C33 C63:C65 C5:C12 C3">
+  <conditionalFormatting sqref="B49 B20:C20 B4:C4 B27:C32 B64:C65 C50 B60:C62 B12:C18 C19:C23 C25:C26 C63:C65 C5:C12 C3 C28:C33">
     <cfRule type="expression" dxfId="14" priority="23">
       <formula>B3&lt;&gt;#REF!</formula>
     </cfRule>
@@ -4879,24 +4898,24 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" customHeight="1">
@@ -4907,7 +4926,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="58.2" customHeight="1">
@@ -4918,7 +4937,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2">
@@ -4981,7 +5000,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>94</v>
@@ -5205,11 +5224,11 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="13" t="s">
         <v>130</v>
       </c>
@@ -5424,11 +5443,11 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="13" t="s">
         <v>145</v>
       </c>
@@ -5703,11 +5722,11 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13" t="s">
         <v>163</v>
       </c>
@@ -5922,11 +5941,11 @@
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="13" t="s">
         <v>178</v>
       </c>
@@ -6203,11 +6222,11 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="13" t="s">
         <v>197</v>
       </c>
@@ -6484,11 +6503,11 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="13" t="s">
         <v>216</v>
       </c>
@@ -6703,11 +6722,11 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="13" t="s">
         <v>231</v>
       </c>
@@ -6920,11 +6939,11 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="13" t="s">
         <v>245</v>
       </c>
@@ -7139,11 +7158,11 @@
       <c r="Y66" s="6"/>
     </row>
     <row r="67" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="13" t="s">
         <v>260</v>
       </c>
@@ -7544,11 +7563,11 @@
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="13" t="s">
         <v>287</v>
       </c>
@@ -7757,11 +7776,11 @@
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="13" t="s">
         <v>299</v>
       </c>
@@ -8008,8 +8027,8 @@
       <c r="C95" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -14138,6 +14157,123 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -14152,123 +14288,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>

--- a/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
+++ b/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="479">
   <si>
     <t>Column header</t>
   </si>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t>Date that COSEWIC assessment was completed</t>
-  </si>
-  <si>
-    <t>Date that the competent minister received the COSEWIC assessment</t>
-  </si>
-  <si>
-    <t>Date that the competent minister provided a recommendation based on the COSEWIC assessment</t>
   </si>
   <si>
     <t>The number of locations that the species occupies. A location is defined as: “a geographically or ecologically distinct area in which a single threatening event can rapidly affect all individuals of the taxon present” (COSEWIC, 2016)</t>
@@ -1866,18 +1860,6 @@
     <t>date_of_listing</t>
   </si>
   <si>
-    <t>minister_receipt_date</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>gic_receipt_date</t>
-  </si>
-  <si>
-    <t>gic_decision_date</t>
-  </si>
-  <si>
     <t>gic_decision</t>
   </si>
   <si>
@@ -2274,12 +2256,6 @@
     <t>Note that "NE" means Not Extracted throughout the database and indicates that the data has not been extracted but could be</t>
   </si>
   <si>
-    <t>Date that the Governor in Council received the recommendation from the Minister of the Environment</t>
-  </si>
-  <si>
-    <t>Date that the Governor in Council amended SARA Schedule 1 to incorporate the species</t>
-  </si>
-  <si>
     <t>Extracted from SARB (Species at Risk Branch) database under 'Legal List' or from the status report</t>
   </si>
   <si>
@@ -2287,19 +2263,6 @@
   </si>
   <si>
     <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under Date added)</t>
-  </si>
-  <si>
-    <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under Last minister's receipt date)</t>
-  </si>
-  <si>
-    <t>Extracted from the SARB database under 'Legal List' (Can also be found in the Response Statement, available on the SAR Public Registry Species Profile)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracted from the SARB database under 'Legal List' ( Can also be found in the Order Acknowledging Receipt of the Assessment Done Pursuant to Subsection 23(1) of the Act, available on the SAR Public Registry Species Profile)
-</t>
-  </si>
-  <si>
-    <t>Extracted from the SARB database under 'Legal List'  ( Can also be found in the Order Amending Schedules 1 to 3 to the Species at Risk Act, available on the SAR Public Registry Species Profile)</t>
   </si>
   <si>
     <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under GIC Decision)</t>
@@ -2587,11 +2550,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3003,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3023,7 +2986,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="72">
       <c r="A1" s="34" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3053,13 +3016,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>19</v>
@@ -3078,13 +3041,13 @@
     </row>
     <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>19</v>
@@ -3109,7 +3072,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>4</v>
@@ -3134,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>4</v>
@@ -3153,22 +3116,22 @@
     </row>
     <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -3185,10 +3148,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>8</v>
@@ -3211,13 +3174,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3234,10 +3197,10 @@
     </row>
     <row r="10" spans="1:15" ht="43.2">
       <c r="A10" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="25" t="s">
@@ -3257,16 +3220,16 @@
     </row>
     <row r="11" spans="1:15" ht="28.8">
       <c r="A11" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -3282,13 +3245,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>7</v>
@@ -3307,16 +3270,16 @@
     </row>
     <row r="13" spans="1:15" ht="28.8">
       <c r="A13" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -3332,10 +3295,10 @@
     </row>
     <row r="14" spans="1:15" ht="28.8">
       <c r="A14" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="25" t="s">
@@ -3351,13 +3314,13 @@
     </row>
     <row r="15" spans="1:15" ht="43.2">
       <c r="A15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>13</v>
@@ -3376,13 +3339,13 @@
     </row>
     <row r="16" spans="1:15" ht="28.8">
       <c r="A16" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>13</v>
@@ -3401,64 +3364,64 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="K17" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="L17" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="M17" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="N17" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="O17" s="25" t="s">
         <v>467</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8">
       <c r="A18" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -3478,16 +3441,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -3509,16 +3472,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -3535,19 +3498,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -3567,13 +3530,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="25"/>
@@ -3594,13 +3557,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="25"/>
@@ -3618,16 +3581,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="25"/>
@@ -3642,13 +3605,13 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>8</v>
@@ -3663,10 +3626,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -3676,16 +3639,16 @@
     </row>
     <row r="26" spans="1:17" ht="72">
       <c r="A26" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I26" s="25"/>
       <c r="K26" s="25"/>
@@ -3696,19 +3659,19 @@
     </row>
     <row r="27" spans="1:17" ht="57.6">
       <c r="A27" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -3723,19 +3686,19 @@
     </row>
     <row r="28" spans="1:17" ht="57.6">
       <c r="A28" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -3750,166 +3713,136 @@
     </row>
     <row r="29" spans="1:17" ht="57.6">
       <c r="A29" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>343</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>387</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+        <v>478</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>451</v>
+      </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-    </row>
-    <row r="30" spans="1:17" ht="57.6">
+    </row>
+    <row r="30" spans="1:17" ht="100.8">
       <c r="A30" s="1" t="s">
-        <v>346</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>372</v>
+        <v>66</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-    </row>
-    <row r="31" spans="1:17" ht="72">
+        <v>392</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+    </row>
+    <row r="31" spans="1:17" ht="57.6">
       <c r="A31" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>372</v>
+        <v>319</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
+        <v>390</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:17" ht="57.6">
       <c r="A32" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>489</v>
+        <v>344</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
+        <v>390</v>
+      </c>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="1:15" ht="57.6">
       <c r="A33" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>490</v>
+        <v>72</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="E33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+    </row>
+    <row r="34" spans="1:15" ht="43.2">
+      <c r="A34" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-    </row>
-    <row r="34" spans="1:15" ht="100.8">
-      <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
@@ -3917,210 +3850,245 @@
     </row>
     <row r="35" spans="1:15" ht="57.6">
       <c r="A35" s="1" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>396</v>
+        <v>389</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>390</v>
       </c>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
     </row>
-    <row r="36" spans="1:15" ht="57.6">
+    <row r="36" spans="1:15" ht="28.8">
       <c r="A36" s="1" t="s">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-    </row>
-    <row r="37" spans="1:15" ht="57.6">
+        <v>106</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+    </row>
+    <row r="37" spans="1:15" ht="43.2">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+        <v>110</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
     </row>
     <row r="38" spans="1:15" ht="43.2">
       <c r="A38" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-    </row>
-    <row r="39" spans="1:15" ht="57.6">
+        <v>27</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+    </row>
+    <row r="39" spans="1:15" ht="72.599999999999994" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-    </row>
-    <row r="40" spans="1:15" ht="28.8">
+        <v>52</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+    </row>
+    <row r="40" spans="1:15" ht="58.2" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+        <v>346</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D40" s="27">
+        <v>0</v>
+      </c>
+      <c r="E40" s="27">
+        <v>1</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>412</v>
+      </c>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="27"/>
+      <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-    </row>
-    <row r="41" spans="1:15" ht="43.2">
+    </row>
+    <row r="41" spans="1:15" ht="101.4" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+        <v>347</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0</v>
+      </c>
+      <c r="E41" s="27">
+        <v>1</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H41" s="26"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="27"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-    </row>
-    <row r="42" spans="1:15" ht="43.2">
+    </row>
+    <row r="42" spans="1:15" ht="101.4" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>401</v>
+        <v>348</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>415</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="27"/>
+        <v>433</v>
+      </c>
+      <c r="D42" s="27">
+        <v>0</v>
+      </c>
+      <c r="E42" s="27">
+        <v>1</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-    </row>
-    <row r="43" spans="1:15" ht="72.599999999999994" thickBot="1">
+    </row>
+    <row r="43" spans="1:15" ht="101.4" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>62</v>
+        <v>349</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>416</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-    </row>
-    <row r="44" spans="1:15" ht="58.2" thickBot="1">
+        <v>433</v>
+      </c>
+      <c r="D43" s="27">
+        <v>0</v>
+      </c>
+      <c r="E43" s="27">
+        <v>1</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="101.4" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B44" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>417</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="D44" s="27">
         <v>0</v>
@@ -4129,241 +4097,250 @@
         <v>1</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-    </row>
-    <row r="45" spans="1:15" ht="101.4" thickBot="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="187.2">
       <c r="A45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" spans="1:15" ht="100.8">
+      <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:15" ht="28.8">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="72">
+      <c r="A48" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+    </row>
+    <row r="49" spans="1:16" ht="28.8">
+      <c r="A49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+    </row>
+    <row r="50" spans="1:16" ht="28.8">
+      <c r="A50" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D45" s="27">
-        <v>0</v>
-      </c>
-      <c r="E45" s="27">
-        <v>1</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-    </row>
-    <row r="46" spans="1:15" ht="101.4" thickBot="1">
-      <c r="A46" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D46" s="27">
-        <v>0</v>
-      </c>
-      <c r="E46" s="27">
-        <v>1</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-    </row>
-    <row r="47" spans="1:15" ht="101.4" thickBot="1">
-      <c r="A47" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>422</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D47" s="27">
-        <v>0</v>
-      </c>
-      <c r="E47" s="27">
-        <v>1</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="101.4" thickBot="1">
-      <c r="A48" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D48" s="27">
-        <v>0</v>
-      </c>
-      <c r="E48" s="27">
-        <v>1</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="187.2">
-      <c r="A49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-    </row>
-    <row r="50" spans="1:16" ht="100.8">
-      <c r="A50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="26"/>
+      <c r="B50" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
     </row>
     <row r="51" spans="1:16" ht="28.8">
       <c r="A51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="D51" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="72">
+      <c r="C51" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+    </row>
+    <row r="52" spans="1:16" ht="28.8">
       <c r="A52" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E52" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
-      <c r="L52" s="25"/>
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
     </row>
     <row r="53" spans="1:16" ht="28.8">
       <c r="A53" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B53" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
     </row>
     <row r="54" spans="1:16" ht="28.8">
       <c r="A54" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4371,414 +4348,292 @@
       <c r="I54" s="1"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
-      <c r="M54" s="25"/>
+      <c r="M54" s="26"/>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="25"/>
     </row>
     <row r="55" spans="1:16" ht="28.8">
       <c r="A55" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-    </row>
-    <row r="56" spans="1:16" ht="28.8">
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+    </row>
+    <row r="56" spans="1:16" ht="158.4">
       <c r="A56" s="1" t="s">
-        <v>361</v>
+        <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J56" s="26"/>
+        <v>426</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
       <c r="K56" s="26"/>
+      <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-    </row>
-    <row r="57" spans="1:16" ht="28.8">
+    </row>
+    <row r="57" spans="1:16" ht="158.4">
       <c r="A57" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>412</v>
+        <v>423</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J57" s="26"/>
+        <v>427</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0</v>
+      </c>
+      <c r="E57" s="25">
+        <v>1</v>
+      </c>
+      <c r="F57" s="25">
+        <v>2</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
       <c r="K57" s="26"/>
-      <c r="M57" s="26"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-    </row>
-    <row r="58" spans="1:16" ht="28.8">
+    </row>
+    <row r="58" spans="1:16" ht="72">
       <c r="A58" s="1" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>413</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>4</v>
+        <v>438</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>418</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="M58" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="L58" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-    </row>
-    <row r="59" spans="1:16" ht="28.8">
+    </row>
+    <row r="59" spans="1:16" ht="72">
       <c r="A59" s="1" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>414</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>4</v>
+        <v>439</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>418</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-    </row>
-    <row r="60" spans="1:16" ht="158.4">
+        <v>35</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="L59" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+    </row>
+    <row r="60" spans="1:16" ht="115.2">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>431</v>
+        <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
+        <v>440</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="L60" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:16" ht="158.4">
+    <row r="61" spans="1:16" ht="72">
       <c r="A61" s="1" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>430</v>
+        <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D61" s="24">
-        <v>0</v>
-      </c>
-      <c r="E61" s="25">
-        <v>1</v>
-      </c>
-      <c r="F61" s="25">
-        <v>2</v>
-      </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="25"/>
+        <v>441</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J61" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="M61" s="25"/>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:16" ht="72">
+    <row r="62" spans="1:16" ht="28.8">
       <c r="A62" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>442</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>443</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D62" s="27" t="s">
-        <v>424</v>
+      <c r="D62" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K62" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-    </row>
-    <row r="63" spans="1:16" ht="72">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="43.2">
       <c r="A63" s="1" t="s">
-        <v>315</v>
+        <v>447</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>424</v>
+        <v>450</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="L63" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-    </row>
-    <row r="64" spans="1:16" ht="115.2">
-      <c r="A64" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K64" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="L64" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-    </row>
-    <row r="65" spans="1:15" ht="72">
-      <c r="A65" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J65" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="K65" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-    </row>
-    <row r="66" spans="1:15" ht="28.8">
-      <c r="A66" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="43.2">
-      <c r="A67" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4790,59 +4645,59 @@
       <formula>C24&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49 B20:C20 B4:C4 B27:C32 B64:C65 C50 B60:C62 B12:C18 C19:C23 C25:C26 C63:C65 C5:C12 C3 C28:C33">
+  <conditionalFormatting sqref="B45 B20:C20 B4:C4 B27:C28 B60:C61 C46 B56:C58 B12:C18 C19:C23 C25:C26 C59:C61 C5:C12 C3 C28:C29">
     <cfRule type="expression" dxfId="14" priority="23">
       <formula>B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:C42 B51">
+  <conditionalFormatting sqref="B38:C38 B47">
     <cfRule type="expression" dxfId="13" priority="21">
-      <formula>B42&lt;&gt;#REF!</formula>
+      <formula>B38&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:C43">
+  <conditionalFormatting sqref="B39:C39">
     <cfRule type="expression" dxfId="12" priority="19">
-      <formula>B43&lt;&gt;#REF!</formula>
+      <formula>B39&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>C30&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>C37&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>C34&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>C41&lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="C40:C45">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>C40&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>C38&lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="D40:G44">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>D40&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:C49">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>C44&lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="B48:I48 B50:I50 B52:I52 B54:I54 C49 C51 C53 C55 E49 E51 E53 E55 G49 G51 G53 G55 I49 I51 I53 I55">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>B48&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:G48">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>D44&lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>C62&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:I52 B54:I54 B56:I56 B58:I58 C53 C55 C57 C59 E53 E55 E57 E59 G53 G55 G57 G59 I53 I55 I57 I59">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>B52&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>C66&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>E66&lt;&gt;#REF!</formula>
+      <formula>E62&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
@@ -4855,14 +4710,14 @@
       <formula>A3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A67">
+  <conditionalFormatting sqref="A16:A63">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>A16&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
+  <conditionalFormatting sqref="E63">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>E67&lt;&gt;#REF!</formula>
+      <formula>E63&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4887,10 +4742,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -4898,178 +4753,178 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="58.2" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5099,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5128,12 +4983,12 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="6"/>
@@ -5159,7 +5014,7 @@
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -5194,13 +5049,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -5224,16 +5079,16 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -5259,14 +5114,14 @@
     <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5293,7 +5148,7 @@
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -5321,14 +5176,14 @@
     <row r="8" spans="1:25" ht="14.25" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5355,7 +5210,7 @@
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -5383,14 +5238,14 @@
     <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5417,7 +5272,7 @@
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -5443,16 +5298,16 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -5478,11 +5333,11 @@
     <row r="13" spans="1:25" ht="14.25" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="6"/>
@@ -5510,7 +5365,7 @@
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -5538,14 +5393,14 @@
     <row r="15" spans="1:25" ht="14.25" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -5572,7 +5427,7 @@
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -5600,14 +5455,14 @@
     <row r="17" spans="1:25" ht="14.25" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -5634,7 +5489,7 @@
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
@@ -5662,14 +5517,14 @@
     <row r="19" spans="1:25" ht="14.25" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -5696,7 +5551,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -5722,16 +5577,16 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -5757,14 +5612,14 @@
     <row r="22" spans="1:25" ht="14.25" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -5791,7 +5646,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -5819,14 +5674,14 @@
     <row r="24" spans="1:25" ht="14.25" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -5853,7 +5708,7 @@
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -5881,14 +5736,14 @@
     <row r="26" spans="1:25" ht="14.25" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -5915,7 +5770,7 @@
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -5941,16 +5796,16 @@
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -5976,14 +5831,14 @@
     <row r="29" spans="1:25" ht="14.25" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -6010,7 +5865,7 @@
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -6038,14 +5893,14 @@
     <row r="31" spans="1:25" ht="14.25" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -6072,7 +5927,7 @@
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -6100,14 +5955,14 @@
     <row r="33" spans="1:25" ht="14.25" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -6134,7 +5989,7 @@
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -6162,14 +6017,14 @@
     <row r="35" spans="1:25" ht="14.25" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -6196,7 +6051,7 @@
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -6222,16 +6077,16 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -6257,14 +6112,14 @@
     <row r="38" spans="1:25" ht="14.25" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -6291,7 +6146,7 @@
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
@@ -6319,14 +6174,14 @@
     <row r="40" spans="1:25" ht="14.25" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -6353,7 +6208,7 @@
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -6381,14 +6236,14 @@
     <row r="42" spans="1:25" ht="14.25" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -6415,7 +6270,7 @@
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D43" s="38"/>
       <c r="E43" s="38"/>
@@ -6443,14 +6298,14 @@
     <row r="44" spans="1:25" ht="14.25" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -6477,7 +6332,7 @@
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
@@ -6503,16 +6358,16 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -6538,14 +6393,14 @@
     <row r="47" spans="1:25" ht="14.25" customHeight="1">
       <c r="A47" s="18"/>
       <c r="B47" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -6572,7 +6427,7 @@
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
@@ -6600,14 +6455,14 @@
     <row r="49" spans="1:25" ht="14.25" customHeight="1">
       <c r="A49" s="18"/>
       <c r="B49" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6634,7 +6489,7 @@
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
@@ -6662,14 +6517,14 @@
     <row r="51" spans="1:25" ht="14.25" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -6696,7 +6551,7 @@
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
@@ -6722,16 +6577,16 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -6757,14 +6612,14 @@
     <row r="54" spans="1:25" ht="14.25" customHeight="1">
       <c r="A54" s="18"/>
       <c r="B54" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -6791,7 +6646,7 @@
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
@@ -6819,14 +6674,14 @@
     <row r="56" spans="1:25" ht="14.25" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -6853,7 +6708,7 @@
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D57" s="38"/>
       <c r="E57" s="38"/>
@@ -6881,11 +6736,11 @@
     <row r="58" spans="1:25" ht="14.25" customHeight="1">
       <c r="A58" s="18"/>
       <c r="B58" s="37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="6"/>
@@ -6913,7 +6768,7 @@
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
@@ -6939,16 +6794,16 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -6974,14 +6829,14 @@
     <row r="61" spans="1:25" ht="14.25" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -7008,7 +6863,7 @@
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
@@ -7036,14 +6891,14 @@
     <row r="63" spans="1:25" ht="14.25" customHeight="1">
       <c r="A63" s="18"/>
       <c r="B63" s="37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -7070,7 +6925,7 @@
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="38"/>
@@ -7098,14 +6953,14 @@
     <row r="65" spans="1:25" ht="14.25" customHeight="1">
       <c r="A65" s="18"/>
       <c r="B65" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -7132,7 +6987,7 @@
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
@@ -7158,16 +7013,16 @@
       <c r="Y66" s="6"/>
     </row>
     <row r="67" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -7193,14 +7048,14 @@
     <row r="68" spans="1:25" ht="14.25" customHeight="1">
       <c r="A68" s="18"/>
       <c r="B68" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -7227,7 +7082,7 @@
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
@@ -7255,14 +7110,14 @@
     <row r="70" spans="1:25" ht="14.25" customHeight="1">
       <c r="A70" s="18"/>
       <c r="B70" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -7289,7 +7144,7 @@
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
@@ -7317,14 +7172,14 @@
     <row r="72" spans="1:25" ht="14.25" customHeight="1">
       <c r="A72" s="18"/>
       <c r="B72" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -7351,7 +7206,7 @@
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D73" s="38"/>
       <c r="E73" s="38"/>
@@ -7379,14 +7234,14 @@
     <row r="74" spans="1:25" ht="14.25" customHeight="1">
       <c r="A74" s="18"/>
       <c r="B74" s="37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -7413,7 +7268,7 @@
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D75" s="38"/>
       <c r="E75" s="38"/>
@@ -7441,14 +7296,14 @@
     <row r="76" spans="1:25" ht="14.25" customHeight="1">
       <c r="A76" s="18"/>
       <c r="B76" s="37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -7475,7 +7330,7 @@
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D77" s="38"/>
       <c r="E77" s="38"/>
@@ -7503,14 +7358,14 @@
     <row r="78" spans="1:25" ht="14.25" customHeight="1">
       <c r="A78" s="18"/>
       <c r="B78" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -7537,7 +7392,7 @@
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -7563,16 +7418,16 @@
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -7598,11 +7453,11 @@
     <row r="81" spans="1:25" ht="14.25" customHeight="1">
       <c r="A81" s="18"/>
       <c r="B81" s="37" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E81" s="39"/>
       <c r="F81" s="6"/>
@@ -7630,7 +7485,7 @@
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -7658,11 +7513,11 @@
     <row r="83" spans="1:25" ht="14.25" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="6"/>
@@ -7690,7 +7545,7 @@
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="38"/>
@@ -7718,11 +7573,11 @@
     <row r="85" spans="1:25" ht="14.25" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="6"/>
@@ -7750,7 +7605,7 @@
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D86" s="38"/>
       <c r="E86" s="38"/>
@@ -7776,16 +7631,16 @@
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -7811,14 +7666,14 @@
     <row r="88" spans="1:25" ht="14.25" customHeight="1">
       <c r="A88" s="18"/>
       <c r="B88" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -7845,7 +7700,7 @@
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D89" s="38"/>
       <c r="E89" s="38"/>
@@ -7873,11 +7728,11 @@
     <row r="90" spans="1:25" ht="14.25" customHeight="1">
       <c r="A90" s="18"/>
       <c r="B90" s="37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="6"/>
@@ -7905,7 +7760,7 @@
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
@@ -7933,11 +7788,11 @@
     <row r="92" spans="1:25" ht="14.25" customHeight="1">
       <c r="A92" s="18"/>
       <c r="B92" s="37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="6"/>
@@ -7965,7 +7820,7 @@
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D93" s="38"/>
       <c r="E93" s="38"/>
@@ -7993,11 +7848,11 @@
     <row r="94" spans="1:25" ht="14.25" customHeight="1">
       <c r="A94" s="18"/>
       <c r="B94" s="37" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="6"/>
@@ -8025,10 +7880,10 @@
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+        <v>311</v>
+      </c>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -14157,44 +14012,85 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="E65:E66"/>
@@ -14209,85 +14105,44 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>

--- a/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
+++ b/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
@@ -2010,9 +2010,6 @@
     <t>NA if not a recovery strategy</t>
   </si>
   <si>
-    <t>Based on the critical habitat section of the Recovery Strategy. If critical habitat is described as fully identified or identified to the extent possible then a 'Y' was recorded. If critical habitat was described as partially identified then a 'P' was recorded. If critical habitat was not identified then an 'N' was recorded and if thethe document is not a Recovery Strategy then NA was recorded</t>
-  </si>
-  <si>
     <t>Whether an "IUCN Threats Assessment" was included in the document</t>
   </si>
   <si>
@@ -2256,16 +2253,19 @@
     <t>Note that "NE" means Not Extracted throughout the database and indicates that the data has not been extracted but could be</t>
   </si>
   <si>
-    <t>Extracted from SARB (Species at Risk Branch) database under 'Legal List' or from the status report</t>
-  </si>
-  <si>
-    <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under Last assessment date)</t>
-  </si>
-  <si>
-    <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under Date added)</t>
-  </si>
-  <si>
-    <t>Extracted from the SARB database under 'Legal List' (Can also be found on the SAR Public Registry Species Profile under GIC Decision)</t>
+    <t>Based on the critical habitat section of the Recovery Strategy. If critical habitat is described as fully identified or identified to the extent possible then a 'Y' was recorded. If critical habitat was described as partially identified then a 'P' was recorded. If critical habitat was not identified then an 'N' was recorded and if the document is not a Recovery Strategy then NA was recorded</t>
+  </si>
+  <si>
+    <t>Extracted from an ECCC internal database (Can also be found on the SAR Public Registry Species Profile under Last assessment date)</t>
+  </si>
+  <si>
+    <t>Extracted from an ECCC internal database (Can also be found on the SAR Public Registry Species Profile under Date added)</t>
+  </si>
+  <si>
+    <t>Extracted from an ECCC internal database (Can also be found on the SAR Public Registry Species Profile under GIC Decision)</t>
+  </si>
+  <si>
+    <t>Extracted from an ECCC internal database or from the status report</t>
   </si>
 </sst>
 </file>
@@ -2550,11 +2550,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2968,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2986,7 +2986,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="72">
       <c r="A1" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3016,13 +3016,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>19</v>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>19</v>
@@ -3072,7 +3072,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>4</v>
@@ -3097,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>4</v>
@@ -3148,10 +3148,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>470</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>471</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>8</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="10" spans="1:15" ht="43.2">
       <c r="A10" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>472</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>473</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="25" t="s">
@@ -3276,7 +3276,7 @@
         <v>371</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>366</v>
@@ -3364,55 +3364,55 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="F17" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="I17" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="J17" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="K17" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="L17" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="M17" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="N17" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="O17" s="25" t="s">
         <v>466</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8">
       <c r="A18" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>67</v>
@@ -3645,7 +3645,7 @@
         <v>378</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>377</v>
@@ -3665,7 +3665,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>366</v>
@@ -3692,7 +3692,7 @@
         <v>317</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>366</v>
@@ -3719,7 +3719,7 @@
         <v>387</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>383</v>
@@ -3734,7 +3734,7 @@
         <v>386</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -3751,7 +3751,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>71</v>
@@ -3922,10 +3922,10 @@
         <v>27</v>
       </c>
       <c r="B38" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" s="27" t="s">
         <v>395</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>396</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>13</v>
@@ -3950,7 +3950,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>13</v>
@@ -3972,10 +3972,10 @@
         <v>346</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D40" s="27">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>382</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
@@ -4002,10 +4002,10 @@
         <v>347</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D41" s="27">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>382</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
@@ -4032,10 +4032,10 @@
         <v>348</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D42" s="27">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>382</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
@@ -4062,10 +4062,10 @@
         <v>349</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D43" s="27">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>382</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="101.4" thickBot="1">
@@ -4085,10 +4085,10 @@
         <v>350</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D44" s="27">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>382</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="187.2">
@@ -4111,7 +4111,7 @@
         <v>61</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>13</v>
@@ -4127,7 +4127,7 @@
         <v>114</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>115</v>
@@ -4140,7 +4140,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>13</v>
@@ -4154,10 +4154,10 @@
         <v>351</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D48" s="1">
         <v>1.1000000000000001</v>
@@ -4166,7 +4166,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -4183,16 +4183,16 @@
         <v>352</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>366</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G49" s="1"/>
       <c r="I49" s="1"/>
@@ -4209,16 +4209,16 @@
         <v>353</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -4236,16 +4236,16 @@
         <v>354</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G51" s="1"/>
       <c r="I51" s="1"/>
@@ -4261,28 +4261,28 @@
         <v>355</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
@@ -4296,28 +4296,28 @@
         <v>356</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="G53" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="H53" s="24" t="s">
-        <v>405</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
@@ -4331,16 +4331,16 @@
         <v>357</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4358,16 +4358,16 @@
         <v>358</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G55" s="1"/>
       <c r="I55" s="1"/>
@@ -4383,10 +4383,10 @@
         <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>13</v>
@@ -4405,13 +4405,13 @@
     </row>
     <row r="57" spans="1:16" ht="158.4">
       <c r="A57" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D57" s="24">
         <v>0</v>
@@ -4440,10 +4440,10 @@
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>29</v>
@@ -4464,13 +4464,13 @@
         <v>34</v>
       </c>
       <c r="K58" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="L58" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="L58" s="33" t="s">
+      <c r="M58" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
@@ -4483,10 +4483,10 @@
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>35</v>
@@ -4507,13 +4507,13 @@
         <v>34</v>
       </c>
       <c r="K59" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="L59" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="L59" s="33" t="s">
+      <c r="M59" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
@@ -4526,10 +4526,10 @@
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>40</v>
@@ -4550,13 +4550,13 @@
         <v>45</v>
       </c>
       <c r="K60" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="L60" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="L60" s="33" t="s">
+      <c r="M60" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
@@ -4569,10 +4569,10 @@
         <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>46</v>
@@ -4590,13 +4590,13 @@
         <v>50</v>
       </c>
       <c r="J61" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="K61" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="L61" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="M61" s="25"/>
       <c r="N61" s="25"/>
@@ -4604,36 +4604,36 @@
     </row>
     <row r="62" spans="1:16" ht="28.8">
       <c r="A62" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="C62" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="43.2">
       <c r="A63" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>447</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>448</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5079,11 +5079,11 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="13" t="s">
         <v>128</v>
       </c>
@@ -5298,11 +5298,11 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="13" t="s">
         <v>143</v>
       </c>
@@ -5577,11 +5577,11 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13" t="s">
         <v>161</v>
       </c>
@@ -5796,11 +5796,11 @@
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="13" t="s">
         <v>176</v>
       </c>
@@ -6077,11 +6077,11 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="13" t="s">
         <v>195</v>
       </c>
@@ -6358,11 +6358,11 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="13" t="s">
         <v>214</v>
       </c>
@@ -6577,11 +6577,11 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="13" t="s">
         <v>229</v>
       </c>
@@ -6794,11 +6794,11 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="13" t="s">
         <v>243</v>
       </c>
@@ -7013,11 +7013,11 @@
       <c r="Y66" s="6"/>
     </row>
     <row r="67" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="13" t="s">
         <v>258</v>
       </c>
@@ -7418,11 +7418,11 @@
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="13" t="s">
         <v>285</v>
       </c>
@@ -7631,11 +7631,11 @@
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="13" t="s">
         <v>297</v>
       </c>
@@ -7882,8 +7882,8 @@
       <c r="C95" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -14012,6 +14012,123 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -14026,123 +14143,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>

--- a/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
+++ b/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
@@ -2256,16 +2256,16 @@
     <t>Based on the critical habitat section of the Recovery Strategy. If critical habitat is described as fully identified or identified to the extent possible then a 'Y' was recorded. If critical habitat was described as partially identified then a 'P' was recorded. If critical habitat was not identified then an 'N' was recorded and if the document is not a Recovery Strategy then NA was recorded</t>
   </si>
   <si>
-    <t>Extracted from an ECCC internal database (Can also be found on the SAR Public Registry Species Profile under Last assessment date)</t>
-  </si>
-  <si>
-    <t>Extracted from an ECCC internal database (Can also be found on the SAR Public Registry Species Profile under Date added)</t>
-  </si>
-  <si>
-    <t>Extracted from an ECCC internal database (Can also be found on the SAR Public Registry Species Profile under GIC Decision)</t>
-  </si>
-  <si>
-    <t>Extracted from an ECCC internal database or from the status report</t>
+    <t>Extracted from the status report</t>
+  </si>
+  <si>
+    <t>Extracted from the SAR Public Registry Species Profile under Last assessment date</t>
+  </si>
+  <si>
+    <t>Extracted from the SAR Public Registry Species Profile under Date added</t>
+  </si>
+  <si>
+    <t>Extracted from the SAR Public Registry Species Profile under GIC Decision</t>
   </si>
 </sst>
 </file>
@@ -2550,11 +2550,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2968,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3645,7 +3645,7 @@
         <v>378</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>377</v>
@@ -3665,7 +3665,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>366</v>
@@ -3692,7 +3692,7 @@
         <v>317</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>366</v>
@@ -3719,7 +3719,7 @@
         <v>387</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>383</v>
@@ -5079,11 +5079,11 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="13" t="s">
         <v>128</v>
       </c>
@@ -5298,11 +5298,11 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="13" t="s">
         <v>143</v>
       </c>
@@ -5577,11 +5577,11 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="13" t="s">
         <v>161</v>
       </c>
@@ -5796,11 +5796,11 @@
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="13" t="s">
         <v>176</v>
       </c>
@@ -6077,11 +6077,11 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="13" t="s">
         <v>195</v>
       </c>
@@ -6358,11 +6358,11 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="13" t="s">
         <v>214</v>
       </c>
@@ -6577,11 +6577,11 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="13" t="s">
         <v>229</v>
       </c>
@@ -6794,11 +6794,11 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="13" t="s">
         <v>243</v>
       </c>
@@ -7013,11 +7013,11 @@
       <c r="Y66" s="6"/>
     </row>
     <row r="67" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="13" t="s">
         <v>258</v>
       </c>
@@ -7418,11 +7418,11 @@
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="13" t="s">
         <v>285</v>
       </c>
@@ -7631,11 +7631,11 @@
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="13" t="s">
         <v>297</v>
       </c>
@@ -7882,8 +7882,8 @@
       <c r="C95" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -14012,44 +14012,85 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="E65:E66"/>
@@ -14064,85 +14105,44 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>

--- a/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
+++ b/data-raw/data-out/CAN-SAR_data_dictionary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\endicotts\Documents\Ilona\CANSARD\data-raw\data-out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naujokaitis-lewisi\Documents\Work Files\Projects_EC\CC_SAR\Project_SAR_Data\Manuscript_SAR_data\SciData\SciData_v4_rev2\dtb_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7968" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7970"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="526">
   <si>
     <t>Column header</t>
   </si>
@@ -1902,9 +1902,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>Note that "NE" means Not Extracted throughout the database and indicates that the data has not been extracted but could be</t>
-  </si>
-  <si>
     <t>Action type</t>
   </si>
   <si>
@@ -1987,16 +1984,10 @@
     <t>Recorded when the document was downloaded.</t>
   </si>
   <si>
-    <t>0 unless the document has "amended" or "amendment" in the title.</t>
-  </si>
-  <si>
     <t>Taxonomic group.</t>
   </si>
   <si>
     <t>The taxonomic group used in the document to describe the species.</t>
-  </si>
-  <si>
-    <t>Estimated Extent of Occurrence: "The area included in a polygon without concave angles that encompasses the geographic distribution of all known populations of a wildlife species” https://www.cosewic.ca/index.php/en-ca/about-us/definitions-abbreviations.html.</t>
   </si>
   <si>
     <t>Index of area of occupancy: “The area within the 'extent of occurrence' that is occupied by a taxon, excluding cases of vagrancy” https://www.cosewic.ca/index.php/en-ca/about-us/definitions-abbreviations.html.</t>
@@ -2190,9 +2181,6 @@
     <t>NR: no knowledge gaps section</t>
   </si>
   <si>
-    <t>NA: CC_action is not 1 or not a recovery document</t>
-  </si>
-  <si>
     <t>NA: not a recovery document</t>
   </si>
   <si>
@@ -2211,9 +2199,6 @@
     <t>The impact of climate change relative to other threats.</t>
   </si>
   <si>
-    <t>Whether an "IUCN Threats Assessment" was included in the document.</t>
-  </si>
-  <si>
     <t>The threats calculator is either included in the 'Threats' section of the document or as an appendix.</t>
   </si>
   <si>
@@ -2325,9 +2310,6 @@
     <t>The Schedule 1 status under SARA. It can be different from the status assessed by COSEWIC. It should be apparent from the 'Protection, status and rank section' of the executive summary in a Status Report, or the preface or executive summary of a Recovery Strategy or Management Plan. The species profile on the SAR Public Registry site also gives the status.</t>
   </si>
   <si>
-    <t>1 unless the document is a Recovery Strategy or Management Plan and says "proposed" in the title</t>
-  </si>
-  <si>
     <t>Sub-types of actions described in the Recovery Strategy or Management Plan.</t>
   </si>
   <si>
@@ -2340,13 +2322,7 @@
     <t>Types of actions described in the Recovery Strategy or Management Plan.</t>
   </si>
   <si>
-    <t xml:space="preserve">0 unless the title includes "Status Appraisal Summary" or "Rapid Review." </t>
-  </si>
-  <si>
     <t>From the 'Production note' in the Status Report. Author last name, Initial of first name, e.g. Smith J, Stewart R</t>
-  </si>
-  <si>
-    <t>From the 'Technical summary' in Status Report. When multiple numbers were given the larger was used, if a range was given the mean was used.</t>
   </si>
   <si>
     <t>From the 'Technical summary' in the Status Report. When multiple numbers were specified the larger was used, if a range was specified the mean was used.</t>
@@ -2392,12 +2368,6 @@
   </si>
   <si>
     <t>The scope value from the 'IUCN Threats Assessment Worksheet' for the level 1 or 2 threat. When there was a range of values specified, the mean was recorded.</t>
-  </si>
-  <si>
-    <t>Committee on the Status of Endangered Wildlife in Canada. Guidance for completing the threats classification and assessment calculator and determining the number of ‘locations’. vol. 1.1 (2012).</t>
-  </si>
-  <si>
-    <t>Salafsky, N. et al. A standard lexicon for biodiversity conservation: unified classifications of threats and actions. Conserv. Biol. 22, 897–911 (2008).</t>
   </si>
   <si>
     <r>
@@ -2521,9 +2491,6 @@
     </r>
   </si>
   <si>
-    <t>Naujokaitis-Lewis, I., Endicott, S. &amp; Guezen, J. M. CAN-SAR: A Database of Canadian Species at Risk Information. (2022). doi:10.17605/OSF.IO/E4A58</t>
-  </si>
-  <si>
     <t>Database Citation</t>
   </si>
   <si>
@@ -2531,6 +2498,54 @@
   </si>
   <si>
     <t>If a threats calculator was used the threat is considered identified if the impact is anything other than blank or 'Not a Threat'. If a threats calculator was not used threats described in the document were classified into the appropriate category based on version 1.1 of the IUCN-CMP Direct Threats Classification (Salafsky et al, 2008). See Threat Classes sheet for class definitions. When there was inadequate or incomplete information about a level 2 threat (e.g.: do not specify what kind of agriculture (farm, crop, etc.) a '2' is recorded for all level 2 threats that could be the one described.</t>
+  </si>
+  <si>
+    <t>Note that 'NE' means Not Extracted throughout the database and indicates that the data has not been extracted but could be</t>
+  </si>
+  <si>
+    <t>Estimated Extent of Occurrence: 'The area included in a polygon without concave angles that encompasses the geographic distribution of all known populations of a wildlife species” https://www.cosewic.ca/index.php/en-ca/about-us/definitions-abbreviations.html.</t>
+  </si>
+  <si>
+    <t>Whether an 'IUCN Threats Assessment' was included in the document.</t>
+  </si>
+  <si>
+    <t>1' unless the document is a Recovery Strategy or Management Plan and says 'proposed' in the title</t>
+  </si>
+  <si>
+    <t>NA: CC_action is not '1' or not a recovery document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0' unless the title includes 'Status Appraisal Summary' or 'Rapid Review.' </t>
+  </si>
+  <si>
+    <t>0' unless the document has 'amended' or 'amendment' in the title.</t>
+  </si>
+  <si>
+    <t>From the 'Technical summary' in the Status Report. When multiple numbers were given the larger was used, if a range was given the mean was used.</t>
+  </si>
+  <si>
+    <t>Naujokaitis-Lewis, I., Endicott, S. &amp; Guezen, J. M. 2022. CAN-SAR: A Database of Canadian Species at Risk Information. doi:10.17605/OSF.IO/E4A58</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Should you be interested in contributing data or discussing possible collaborations, we would be excited to discuss. Please contact:</t>
+  </si>
+  <si>
+    <t>Dr. Ilona Naujokaitis-Lewis</t>
+  </si>
+  <si>
+    <t>ilona.naujokaitis-lewis@ec.gc.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This data dictionary accompanies the CAN-SAR database csv file and provides a description of all variable fields contained in the database, including an explanation of data extraction details and coding values. </t>
+  </si>
+  <si>
+    <t>Salafsky, N. et al. 2008. A standard lexicon for biodiversity conservation: unified classifications of threats and actions. Conservation Biology. 22, 897–911.</t>
+  </si>
+  <si>
+    <t>Committee on the Status of Endangered Wildlife in Canada. 2012. Guidance for completing the threats classification and assessment calculator and determining the number of ‘locations’. vol. 1.1.</t>
   </si>
 </sst>
 </file>
@@ -2640,13 +2655,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2657,6 +2665,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2718,12 +2734,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2819,18 +2836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2844,41 +2849,31 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF76923C"/>
-          <bgColor rgb="FF76923C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF76923C"/>
-          <bgColor rgb="FF76923C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF76923C"/>
-          <bgColor rgb="FF76923C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3283,102 +3278,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
         <v>478</v>
       </c>
-      <c r="B6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>479</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>482</v>
-      </c>
-      <c r="B8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>517</v>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="48" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:G3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3386,35 +3408,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="52.21875" style="23" customWidth="1"/>
-    <col min="4" max="10" width="20.6640625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="23"/>
-    <col min="15" max="15" width="18.5546875" style="23" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="23"/>
-    <col min="18" max="18" width="15.44140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="23" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="23" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="28.90625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="55.1796875" style="23" customWidth="1"/>
+    <col min="4" max="10" width="20.6328125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" style="23"/>
+    <col min="15" max="15" width="18.54296875" style="23" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" style="23"/>
+    <col min="18" max="18" width="15.453125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="14.90625" style="23" customWidth="1"/>
+    <col min="20" max="20" width="12.36328125" style="23" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="23" customWidth="1"/>
+    <col min="22" max="16384" width="8.90625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3424,11 +3446,11 @@
       <c r="C2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>451</v>
+      <c r="D2" s="38" t="s">
+        <v>447</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -3441,15 +3463,15 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>14</v>
@@ -3466,15 +3488,15 @@
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>14</v>
@@ -3491,15 +3513,15 @@
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>3</v>
@@ -3516,15 +3538,15 @@
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>3</v>
@@ -3541,7 +3563,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>288</v>
       </c>
@@ -3549,10 +3571,10 @@
         <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>316</v>
@@ -3573,18 +3595,18 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>6</v>
@@ -3605,15 +3627,15 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>373</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>374</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>3</v>
@@ -3630,15 +3652,15 @@
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>375</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>376</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>3</v>
@@ -3655,15 +3677,15 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>377</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>378</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>320</v>
@@ -3680,15 +3702,15 @@
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>5</v>
@@ -3705,15 +3727,15 @@
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>320</v>
@@ -3730,24 +3752,24 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>499</v>
+      <c r="C14" s="32" t="s">
+        <v>515</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
@@ -3755,24 +3777,24 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>494</v>
+      <c r="C15" s="32" t="s">
+        <v>513</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
@@ -3784,24 +3806,24 @@
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>383</v>
+      <c r="C16" s="32" t="s">
+        <v>516</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -3813,18 +3835,18 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>342</v>
@@ -3863,21 +3885,21 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -3889,24 +3911,24 @@
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>386</v>
+        <v>511</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -3920,24 +3942,24 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="1:21" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="90.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -3949,24 +3971,24 @@
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:21" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -3978,27 +4000,27 @@
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
@@ -4011,27 +4033,27 @@
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
@@ -4044,27 +4066,27 @@
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
     </row>
-    <row r="24" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
@@ -4077,18 +4099,18 @@
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>6</v>
@@ -4109,93 +4131,93 @@
         <v>324</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
     </row>
-    <row r="26" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E26" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="I26" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="J26" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="K26" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="L26" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="M26" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="N26" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="O26" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="P26" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="Q26" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="R26" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="S26" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="T26" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="R26" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="S26" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="T26" s="23" t="s">
-        <v>435</v>
-      </c>
       <c r="U26" s="26" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>320</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -4208,21 +4230,21 @@
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>320</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -4235,18 +4257,18 @@
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>325</v>
@@ -4261,7 +4283,7 @@
         <v>328</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -4270,30 +4292,30 @@
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
     </row>
-    <row r="30" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -4306,132 +4328,132 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
     </row>
-    <row r="31" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>78</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>78</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
@@ -4444,21 +4466,21 @@
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
     </row>
-    <row r="37" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -4471,24 +4493,24 @@
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="24"/>
@@ -4500,24 +4522,24 @@
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="1:16" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
@@ -4529,30 +4551,30 @@
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
     </row>
-    <row r="40" spans="1:16" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -4562,30 +4584,30 @@
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
     </row>
-    <row r="41" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="24"/>
@@ -4595,30 +4617,30 @@
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>417</v>
-      </c>
       <c r="E42" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
@@ -4628,140 +4650,140 @@
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
     </row>
-    <row r="43" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>418</v>
-      </c>
       <c r="F43" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="249.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D46" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="H46" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="E46" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="F46" s="43" t="s">
+      <c r="I46" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="G46" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E48" s="1">
         <v>1.1000000000000001</v>
@@ -4770,7 +4792,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -4782,15 +4804,15 @@
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>320</v>
@@ -4808,15 +4830,15 @@
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -4835,15 +4857,15 @@
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>3</v>
@@ -4860,15 +4882,15 @@
       <c r="O51" s="24"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -4895,15 +4917,15 @@
       <c r="O52" s="24"/>
       <c r="P52" s="24"/>
     </row>
-    <row r="53" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>3</v>
@@ -4930,15 +4952,15 @@
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
     </row>
-    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -4957,15 +4979,15 @@
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
     </row>
-    <row r="55" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>3</v>
@@ -4982,24 +5004,24 @@
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
     </row>
-    <row r="56" spans="1:16" ht="179.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
@@ -5011,27 +5033,27 @@
       <c r="N56" s="24"/>
       <c r="O56" s="24"/>
     </row>
-    <row r="57" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
@@ -5043,18 +5065,18 @@
       <c r="O57" s="24"/>
       <c r="P57" s="24"/>
     </row>
-    <row r="58" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>334</v>
@@ -5086,18 +5108,18 @@
       <c r="N58" s="24"/>
       <c r="O58" s="24"/>
     </row>
-    <row r="59" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>334</v>
@@ -5129,18 +5151,18 @@
       <c r="N59" s="24"/>
       <c r="O59" s="24"/>
     </row>
-    <row r="60" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E60" s="32" t="s">
         <v>334</v>
@@ -5172,18 +5194,18 @@
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
     </row>
-    <row r="61" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E61" s="32" t="s">
         <v>334</v>
@@ -5213,15 +5235,15 @@
       <c r="N61" s="24"/>
       <c r="O61" s="24"/>
     </row>
-    <row r="62" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>3</v>
@@ -5230,15 +5252,15 @@
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>3</v>
@@ -5249,82 +5271,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="18" priority="23">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>C24&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45 B20:C20 B4:C4 B27:C28 B60:C61 B56:C58 B12:C18 C19:C23 C59:C61 C5:C12 C3 C28:C29 D7:D8 D17 C25:D26 D29 E30:F30 C46:D46 D57">
-    <cfRule type="expression" dxfId="17" priority="26">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C38 B47">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>B38&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:C39">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>B39&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>C30&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>C37&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>C34&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C45">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>C40&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:H44">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>G40&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50 B52:H52 B54:D54 C49 C51 C53 C55 G49 G51 G53 G55 I49 I55 B48:J48 I51 E53 F54:I54 F50:I50">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>B48&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>C62&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>A15&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A14">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>A3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A63">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>A16&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>D30&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>I46&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5337,20 +5359,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>47</v>
@@ -5359,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>280</v>
       </c>
@@ -5370,7 +5392,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>280</v>
       </c>
@@ -5381,7 +5403,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -5392,7 +5414,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -5403,7 +5425,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -5414,7 +5436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -5425,7 +5447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -5436,7 +5458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -5447,7 +5469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -5458,7 +5480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -5469,7 +5491,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -5480,7 +5502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>65</v>
       </c>
@@ -5491,7 +5513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -5502,7 +5524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -5513,7 +5535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -5524,7 +5546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -5546,21 +5568,21 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" style="6" customWidth="1"/>
     <col min="3" max="3" width="39" style="6" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="71.44140625" style="6" customWidth="1"/>
-    <col min="6" max="25" width="8.88671875" style="6" customWidth="1"/>
-    <col min="26" max="16384" width="14.44140625" style="6"/>
+    <col min="4" max="4" width="48.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="71.453125" style="6" customWidth="1"/>
+    <col min="6" max="25" width="8.90625" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="14.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>85</v>
       </c>
@@ -5591,7 +5613,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
@@ -5620,7 +5642,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -5657,12 +5679,12 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="12" t="s">
         <v>92</v>
       </c>
@@ -5690,16 +5712,16 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="44" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="5"/>
@@ -5723,14 +5745,14 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -5752,16 +5774,16 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="44" t="s">
         <v>100</v>
       </c>
       <c r="F7" s="5"/>
@@ -5785,14 +5807,14 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -5814,16 +5836,16 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
       <c r="F9" s="5"/>
@@ -5847,14 +5869,14 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -5876,12 +5898,12 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="12" t="s">
         <v>107</v>
       </c>
@@ -5909,16 +5931,16 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -5940,14 +5962,14 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -5969,16 +5991,16 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="44" t="s">
         <v>114</v>
       </c>
       <c r="F14" s="5"/>
@@ -6002,14 +6024,14 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -6031,16 +6053,16 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="44" t="s">
         <v>118</v>
       </c>
       <c r="F16" s="5"/>
@@ -6064,14 +6086,14 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -6093,16 +6115,16 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="44" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="5"/>
@@ -6126,14 +6148,14 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -6155,12 +6177,12 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="12" t="s">
         <v>125</v>
       </c>
@@ -6188,16 +6210,16 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="44" t="s">
         <v>129</v>
       </c>
       <c r="F21" s="5"/>
@@ -6221,14 +6243,14 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -6250,16 +6272,16 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="44" t="s">
         <v>133</v>
       </c>
       <c r="F23" s="5"/>
@@ -6283,14 +6305,14 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -6312,16 +6334,16 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="44" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="5"/>
@@ -6345,14 +6367,14 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -6374,12 +6396,12 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="12" t="s">
         <v>140</v>
       </c>
@@ -6407,16 +6429,16 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="44" t="s">
         <v>144</v>
       </c>
       <c r="F28" s="5"/>
@@ -6440,14 +6462,14 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -6469,16 +6491,16 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="44" t="s">
         <v>148</v>
       </c>
       <c r="F30" s="5"/>
@@ -6502,14 +6524,14 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -6531,16 +6553,16 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="44" t="s">
         <v>152</v>
       </c>
       <c r="F32" s="5"/>
@@ -6564,14 +6586,14 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -6593,16 +6615,16 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="43"/>
+      <c r="D34" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="44" t="s">
         <v>156</v>
       </c>
       <c r="F34" s="5"/>
@@ -6626,14 +6648,14 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -6655,12 +6677,12 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+    <row r="36" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="12" t="s">
         <v>159</v>
       </c>
@@ -6688,16 +6710,16 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="43"/>
+      <c r="D37" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="44" t="s">
         <v>163</v>
       </c>
       <c r="F37" s="5"/>
@@ -6721,14 +6743,14 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -6750,16 +6772,16 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="44" t="s">
         <v>167</v>
       </c>
       <c r="F39" s="5"/>
@@ -6783,14 +6805,14 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -6812,16 +6834,16 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="44" t="s">
         <v>171</v>
       </c>
       <c r="F41" s="5"/>
@@ -6845,14 +6867,14 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -6874,16 +6896,16 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="37" t="s">
+      <c r="C43" s="43"/>
+      <c r="D43" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="44" t="s">
         <v>175</v>
       </c>
       <c r="F43" s="5"/>
@@ -6907,14 +6929,14 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -6936,12 +6958,12 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
+    <row r="45" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="12" t="s">
         <v>178</v>
       </c>
@@ -6969,16 +6991,16 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="37" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="44" t="s">
         <v>182</v>
       </c>
       <c r="F46" s="5"/>
@@ -7002,14 +7024,14 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -7031,16 +7053,16 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
     </row>
-    <row r="48" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37" t="s">
+      <c r="C48" s="43"/>
+      <c r="D48" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="44" t="s">
         <v>186</v>
       </c>
       <c r="F48" s="5"/>
@@ -7064,14 +7086,14 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -7093,16 +7115,16 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
     </row>
-    <row r="50" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="43"/>
+      <c r="D50" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="44" t="s">
         <v>190</v>
       </c>
       <c r="F50" s="5"/>
@@ -7126,14 +7148,14 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -7155,12 +7177,12 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39" t="s">
+    <row r="52" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="12" t="s">
         <v>193</v>
       </c>
@@ -7188,16 +7210,16 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17"/>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37" t="s">
+      <c r="C53" s="43"/>
+      <c r="D53" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="44" t="s">
         <v>197</v>
       </c>
       <c r="F53" s="5"/>
@@ -7221,14 +7243,14 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -7250,16 +7272,16 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17"/>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37" t="s">
+      <c r="C55" s="43"/>
+      <c r="D55" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="44" t="s">
         <v>201</v>
       </c>
       <c r="F55" s="5"/>
@@ -7283,14 +7305,14 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -7312,16 +7334,16 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17"/>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="37" t="s">
+      <c r="C57" s="43"/>
+      <c r="D57" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="E57" s="37"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -7343,14 +7365,14 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
-    <row r="58" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -7372,12 +7394,12 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
     </row>
-    <row r="59" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="39" t="s">
+    <row r="59" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="12" t="s">
         <v>207</v>
       </c>
@@ -7405,16 +7427,16 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17"/>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="37" t="s">
+      <c r="C60" s="43"/>
+      <c r="D60" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="44" t="s">
         <v>211</v>
       </c>
       <c r="F60" s="5"/>
@@ -7438,14 +7460,14 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
     </row>
-    <row r="61" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -7467,16 +7489,16 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17"/>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37" t="s">
+      <c r="C62" s="43"/>
+      <c r="D62" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="44" t="s">
         <v>215</v>
       </c>
       <c r="F62" s="5"/>
@@ -7500,14 +7522,14 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
     </row>
-    <row r="63" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -7529,16 +7551,16 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
     </row>
-    <row r="64" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17"/>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="37" t="s">
+      <c r="C64" s="43"/>
+      <c r="D64" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="44" t="s">
         <v>219</v>
       </c>
       <c r="F64" s="5"/>
@@ -7562,14 +7584,14 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -7591,12 +7613,12 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
+    <row r="66" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="12" t="s">
         <v>222</v>
       </c>
@@ -7624,16 +7646,16 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
     </row>
-    <row r="67" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17"/>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="37" t="s">
+      <c r="C67" s="43"/>
+      <c r="D67" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="44" t="s">
         <v>226</v>
       </c>
       <c r="F67" s="5"/>
@@ -7657,14 +7679,14 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
     </row>
-    <row r="68" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -7686,16 +7708,16 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
     </row>
-    <row r="69" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17"/>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="37" t="s">
+      <c r="C69" s="43"/>
+      <c r="D69" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="44" t="s">
         <v>230</v>
       </c>
       <c r="F69" s="5"/>
@@ -7719,14 +7741,14 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
     </row>
-    <row r="70" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -7748,16 +7770,16 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
     </row>
-    <row r="71" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17"/>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="37" t="s">
+      <c r="C71" s="43"/>
+      <c r="D71" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="44" t="s">
         <v>234</v>
       </c>
       <c r="F71" s="5"/>
@@ -7781,14 +7803,14 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -7810,16 +7832,16 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
     </row>
-    <row r="73" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17"/>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="37" t="s">
+      <c r="C73" s="43"/>
+      <c r="D73" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E73" s="44" t="s">
         <v>238</v>
       </c>
       <c r="F73" s="5"/>
@@ -7843,14 +7865,14 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
     </row>
-    <row r="74" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -7872,16 +7894,16 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
     </row>
-    <row r="75" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17"/>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37" t="s">
+      <c r="C75" s="43"/>
+      <c r="D75" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="44" t="s">
         <v>242</v>
       </c>
       <c r="F75" s="5"/>
@@ -7905,14 +7927,14 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
     </row>
-    <row r="76" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -7934,16 +7956,16 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17"/>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37" t="s">
+      <c r="C77" s="43"/>
+      <c r="D77" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="44" t="s">
         <v>246</v>
       </c>
       <c r="F77" s="5"/>
@@ -7967,14 +7989,14 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -7996,12 +8018,12 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
     </row>
-    <row r="79" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39" t="s">
+    <row r="79" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="12" t="s">
         <v>249</v>
       </c>
@@ -8029,16 +8051,16 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
-    <row r="80" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17"/>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37" t="s">
+      <c r="C80" s="43"/>
+      <c r="D80" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="E80" s="37"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -8060,14 +8082,14 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
     </row>
-    <row r="81" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -8089,16 +8111,16 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
     </row>
-    <row r="82" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17"/>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37" t="s">
+      <c r="C82" s="43"/>
+      <c r="D82" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="E82" s="37"/>
+      <c r="E82" s="44"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -8120,14 +8142,14 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
     </row>
-    <row r="83" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -8149,16 +8171,16 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="17"/>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37" t="s">
+      <c r="C84" s="43"/>
+      <c r="D84" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="E84" s="37"/>
+      <c r="E84" s="44"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -8180,14 +8202,14 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -8209,12 +8231,12 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
     </row>
-    <row r="86" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39" t="s">
+    <row r="86" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="12" t="s">
         <v>261</v>
       </c>
@@ -8242,16 +8264,16 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
     </row>
-    <row r="87" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17"/>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="37" t="s">
+      <c r="C87" s="43"/>
+      <c r="D87" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E87" s="44" t="s">
         <v>265</v>
       </c>
       <c r="F87" s="5"/>
@@ -8275,14 +8297,14 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -8304,16 +8326,16 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="17"/>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="37" t="s">
+      <c r="C89" s="43"/>
+      <c r="D89" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="E89" s="37"/>
+      <c r="E89" s="44"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -8335,14 +8357,14 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -8364,16 +8386,16 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
     </row>
-    <row r="91" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="17"/>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37" t="s">
+      <c r="C91" s="43"/>
+      <c r="D91" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="E91" s="37"/>
+      <c r="E91" s="44"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -8395,14 +8417,14 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -8424,16 +8446,16 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="17"/>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="37" t="s">
+      <c r="C93" s="43"/>
+      <c r="D93" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="E93" s="37"/>
+      <c r="E93" s="44"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -8455,14 +8477,14 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
     </row>
-    <row r="94" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -8484,7 +8506,7 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
     </row>
-    <row r="95" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -8511,7 +8533,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
     </row>
-    <row r="96" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -8538,7 +8560,7 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
     </row>
-    <row r="97" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -8565,7 +8587,7 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
     </row>
-    <row r="98" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -8592,7 +8614,7 @@
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
     </row>
-    <row r="99" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -8619,7 +8641,7 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
     </row>
-    <row r="100" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -8646,7 +8668,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
     </row>
-    <row r="101" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -8673,7 +8695,7 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
     </row>
-    <row r="102" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -8700,7 +8722,7 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
     </row>
-    <row r="103" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -8727,7 +8749,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
     </row>
-    <row r="104" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8754,7 +8776,7 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
-    <row r="105" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -8781,7 +8803,7 @@
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
     </row>
-    <row r="106" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -8808,7 +8830,7 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
     </row>
-    <row r="107" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -8835,7 +8857,7 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
     </row>
-    <row r="108" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -8862,7 +8884,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
     </row>
-    <row r="109" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -8889,7 +8911,7 @@
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
     </row>
-    <row r="110" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -8916,7 +8938,7 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
     </row>
-    <row r="111" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -8943,7 +8965,7 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
     </row>
-    <row r="112" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -8970,7 +8992,7 @@
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
     </row>
-    <row r="113" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -8997,7 +9019,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
     </row>
-    <row r="114" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -9024,7 +9046,7 @@
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
     </row>
-    <row r="115" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -9051,7 +9073,7 @@
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
     </row>
-    <row r="116" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -9078,7 +9100,7 @@
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
     </row>
-    <row r="117" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -9105,7 +9127,7 @@
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
     </row>
-    <row r="118" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -9132,7 +9154,7 @@
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
     </row>
-    <row r="119" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -9159,7 +9181,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
     </row>
-    <row r="120" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -9186,7 +9208,7 @@
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
     </row>
-    <row r="121" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -9213,7 +9235,7 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
     </row>
-    <row r="122" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -9240,7 +9262,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
     </row>
-    <row r="123" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -9267,7 +9289,7 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
-    <row r="124" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -9294,7 +9316,7 @@
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
     </row>
-    <row r="125" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -9321,7 +9343,7 @@
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
     </row>
-    <row r="126" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -9348,7 +9370,7 @@
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
     </row>
-    <row r="127" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -9375,7 +9397,7 @@
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
     </row>
-    <row r="128" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -9402,7 +9424,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
     </row>
-    <row r="129" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -9429,7 +9451,7 @@
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
     </row>
-    <row r="130" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -9456,7 +9478,7 @@
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
     </row>
-    <row r="131" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -9483,7 +9505,7 @@
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
     </row>
-    <row r="132" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -9510,7 +9532,7 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -9537,7 +9559,7 @@
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
     </row>
-    <row r="134" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -9564,7 +9586,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
     </row>
-    <row r="135" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -9591,7 +9613,7 @@
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
     </row>
-    <row r="136" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -9618,7 +9640,7 @@
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
     </row>
-    <row r="137" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -9645,7 +9667,7 @@
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
     </row>
-    <row r="138" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -9672,7 +9694,7 @@
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
     </row>
-    <row r="139" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -9699,7 +9721,7 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
     </row>
-    <row r="140" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -9726,7 +9748,7 @@
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
     </row>
-    <row r="141" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -9753,7 +9775,7 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
     </row>
-    <row r="142" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -9780,7 +9802,7 @@
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
     </row>
-    <row r="143" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -9807,7 +9829,7 @@
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
     </row>
-    <row r="144" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -9834,7 +9856,7 @@
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
     </row>
-    <row r="145" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -9861,7 +9883,7 @@
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
     </row>
-    <row r="146" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -9888,7 +9910,7 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
     </row>
-    <row r="147" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -9915,7 +9937,7 @@
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
     </row>
-    <row r="148" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -9942,7 +9964,7 @@
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
     </row>
-    <row r="149" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -9969,7 +9991,7 @@
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
     </row>
-    <row r="150" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -9996,7 +10018,7 @@
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
     </row>
-    <row r="151" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -10023,7 +10045,7 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
     </row>
-    <row r="152" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -10050,7 +10072,7 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
     </row>
-    <row r="153" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -10077,7 +10099,7 @@
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
     </row>
-    <row r="154" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -10104,7 +10126,7 @@
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
     </row>
-    <row r="155" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -10131,7 +10153,7 @@
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
     </row>
-    <row r="156" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -10158,7 +10180,7 @@
       <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
     </row>
-    <row r="157" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -10185,7 +10207,7 @@
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
     </row>
-    <row r="158" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -10212,7 +10234,7 @@
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
     </row>
-    <row r="159" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -10239,7 +10261,7 @@
       <c r="X159" s="5"/>
       <c r="Y159" s="5"/>
     </row>
-    <row r="160" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -10266,7 +10288,7 @@
       <c r="X160" s="5"/>
       <c r="Y160" s="5"/>
     </row>
-    <row r="161" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -10293,7 +10315,7 @@
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
     </row>
-    <row r="162" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -10320,7 +10342,7 @@
       <c r="X162" s="5"/>
       <c r="Y162" s="5"/>
     </row>
-    <row r="163" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -10347,7 +10369,7 @@
       <c r="X163" s="5"/>
       <c r="Y163" s="5"/>
     </row>
-    <row r="164" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -10374,7 +10396,7 @@
       <c r="X164" s="5"/>
       <c r="Y164" s="5"/>
     </row>
-    <row r="165" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -10401,7 +10423,7 @@
       <c r="X165" s="5"/>
       <c r="Y165" s="5"/>
     </row>
-    <row r="166" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -10428,7 +10450,7 @@
       <c r="X166" s="5"/>
       <c r="Y166" s="5"/>
     </row>
-    <row r="167" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -10455,7 +10477,7 @@
       <c r="X167" s="5"/>
       <c r="Y167" s="5"/>
     </row>
-    <row r="168" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -10482,7 +10504,7 @@
       <c r="X168" s="5"/>
       <c r="Y168" s="5"/>
     </row>
-    <row r="169" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -10509,7 +10531,7 @@
       <c r="X169" s="5"/>
       <c r="Y169" s="5"/>
     </row>
-    <row r="170" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -10536,7 +10558,7 @@
       <c r="X170" s="5"/>
       <c r="Y170" s="5"/>
     </row>
-    <row r="171" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -10563,7 +10585,7 @@
       <c r="X171" s="5"/>
       <c r="Y171" s="5"/>
     </row>
-    <row r="172" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -10590,7 +10612,7 @@
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
     </row>
-    <row r="173" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -10617,7 +10639,7 @@
       <c r="X173" s="5"/>
       <c r="Y173" s="5"/>
     </row>
-    <row r="174" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -10644,7 +10666,7 @@
       <c r="X174" s="5"/>
       <c r="Y174" s="5"/>
     </row>
-    <row r="175" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -10671,7 +10693,7 @@
       <c r="X175" s="5"/>
       <c r="Y175" s="5"/>
     </row>
-    <row r="176" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -10698,7 +10720,7 @@
       <c r="X176" s="5"/>
       <c r="Y176" s="5"/>
     </row>
-    <row r="177" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -10725,7 +10747,7 @@
       <c r="X177" s="5"/>
       <c r="Y177" s="5"/>
     </row>
-    <row r="178" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -10752,7 +10774,7 @@
       <c r="X178" s="5"/>
       <c r="Y178" s="5"/>
     </row>
-    <row r="179" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -10779,7 +10801,7 @@
       <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
     </row>
-    <row r="180" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -10806,7 +10828,7 @@
       <c r="X180" s="5"/>
       <c r="Y180" s="5"/>
     </row>
-    <row r="181" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -10833,7 +10855,7 @@
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
     </row>
-    <row r="182" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -10860,7 +10882,7 @@
       <c r="X182" s="5"/>
       <c r="Y182" s="5"/>
     </row>
-    <row r="183" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -10887,7 +10909,7 @@
       <c r="X183" s="5"/>
       <c r="Y183" s="5"/>
     </row>
-    <row r="184" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -10914,7 +10936,7 @@
       <c r="X184" s="5"/>
       <c r="Y184" s="5"/>
     </row>
-    <row r="185" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -10941,7 +10963,7 @@
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
     </row>
-    <row r="186" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -10968,7 +10990,7 @@
       <c r="X186" s="5"/>
       <c r="Y186" s="5"/>
     </row>
-    <row r="187" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -10995,7 +11017,7 @@
       <c r="X187" s="5"/>
       <c r="Y187" s="5"/>
     </row>
-    <row r="188" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -11022,7 +11044,7 @@
       <c r="X188" s="5"/>
       <c r="Y188" s="5"/>
     </row>
-    <row r="189" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -11049,7 +11071,7 @@
       <c r="X189" s="5"/>
       <c r="Y189" s="5"/>
     </row>
-    <row r="190" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -11076,7 +11098,7 @@
       <c r="X190" s="5"/>
       <c r="Y190" s="5"/>
     </row>
-    <row r="191" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -11103,7 +11125,7 @@
       <c r="X191" s="5"/>
       <c r="Y191" s="5"/>
     </row>
-    <row r="192" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -11130,7 +11152,7 @@
       <c r="X192" s="5"/>
       <c r="Y192" s="5"/>
     </row>
-    <row r="193" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -11157,7 +11179,7 @@
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
     </row>
-    <row r="194" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -11184,7 +11206,7 @@
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
     </row>
-    <row r="195" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -11211,7 +11233,7 @@
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
     </row>
-    <row r="196" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -11238,7 +11260,7 @@
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
     </row>
-    <row r="197" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -11265,7 +11287,7 @@
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
     </row>
-    <row r="198" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -11292,7 +11314,7 @@
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
     </row>
-    <row r="199" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -11319,7 +11341,7 @@
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
     </row>
-    <row r="200" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -11346,7 +11368,7 @@
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
     </row>
-    <row r="201" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -11373,7 +11395,7 @@
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
     </row>
-    <row r="202" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -11400,7 +11422,7 @@
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
     </row>
-    <row r="203" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -11427,7 +11449,7 @@
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
     </row>
-    <row r="204" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -11454,7 +11476,7 @@
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
     </row>
-    <row r="205" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -11481,7 +11503,7 @@
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
     </row>
-    <row r="206" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -11508,7 +11530,7 @@
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
     </row>
-    <row r="207" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -11535,7 +11557,7 @@
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
     </row>
-    <row r="208" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -11562,7 +11584,7 @@
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
     </row>
-    <row r="209" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -11589,7 +11611,7 @@
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
     </row>
-    <row r="210" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -11616,7 +11638,7 @@
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
     </row>
-    <row r="211" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -11643,7 +11665,7 @@
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
     </row>
-    <row r="212" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -11670,7 +11692,7 @@
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
     </row>
-    <row r="213" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -11697,7 +11719,7 @@
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
     </row>
-    <row r="214" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -11724,7 +11746,7 @@
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
     </row>
-    <row r="215" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -11751,7 +11773,7 @@
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
     </row>
-    <row r="216" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -11778,7 +11800,7 @@
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
     </row>
-    <row r="217" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -11805,7 +11827,7 @@
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
     </row>
-    <row r="218" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -11832,7 +11854,7 @@
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
     </row>
-    <row r="219" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -11859,7 +11881,7 @@
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
     </row>
-    <row r="220" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -11886,7 +11908,7 @@
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
     </row>
-    <row r="221" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -11913,7 +11935,7 @@
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
     </row>
-    <row r="222" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -11940,7 +11962,7 @@
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
     </row>
-    <row r="223" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -11967,7 +11989,7 @@
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
     </row>
-    <row r="224" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -11994,7 +12016,7 @@
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
     </row>
-    <row r="225" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -12021,7 +12043,7 @@
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
     </row>
-    <row r="226" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -12048,7 +12070,7 @@
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
     </row>
-    <row r="227" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -12075,7 +12097,7 @@
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
     </row>
-    <row r="228" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -12102,7 +12124,7 @@
       <c r="X228" s="5"/>
       <c r="Y228" s="5"/>
     </row>
-    <row r="229" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -12129,7 +12151,7 @@
       <c r="X229" s="5"/>
       <c r="Y229" s="5"/>
     </row>
-    <row r="230" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -12156,7 +12178,7 @@
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
     </row>
-    <row r="231" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -12183,7 +12205,7 @@
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
     </row>
-    <row r="232" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -12210,7 +12232,7 @@
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
     </row>
-    <row r="233" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -12237,7 +12259,7 @@
       <c r="X233" s="5"/>
       <c r="Y233" s="5"/>
     </row>
-    <row r="234" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -12264,7 +12286,7 @@
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
     </row>
-    <row r="235" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -12291,7 +12313,7 @@
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
     </row>
-    <row r="236" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -12318,7 +12340,7 @@
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
     </row>
-    <row r="237" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -12345,7 +12367,7 @@
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
     </row>
-    <row r="238" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -12372,7 +12394,7 @@
       <c r="X238" s="5"/>
       <c r="Y238" s="5"/>
     </row>
-    <row r="239" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -12399,7 +12421,7 @@
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
     </row>
-    <row r="240" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -12426,7 +12448,7 @@
       <c r="X240" s="5"/>
       <c r="Y240" s="5"/>
     </row>
-    <row r="241" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -12453,7 +12475,7 @@
       <c r="X241" s="5"/>
       <c r="Y241" s="5"/>
     </row>
-    <row r="242" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -12480,7 +12502,7 @@
       <c r="X242" s="5"/>
       <c r="Y242" s="5"/>
     </row>
-    <row r="243" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -12507,7 +12529,7 @@
       <c r="X243" s="5"/>
       <c r="Y243" s="5"/>
     </row>
-    <row r="244" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -12534,7 +12556,7 @@
       <c r="X244" s="5"/>
       <c r="Y244" s="5"/>
     </row>
-    <row r="245" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -12561,7 +12583,7 @@
       <c r="X245" s="5"/>
       <c r="Y245" s="5"/>
     </row>
-    <row r="246" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -12588,7 +12610,7 @@
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
     </row>
-    <row r="247" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -12615,7 +12637,7 @@
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
     </row>
-    <row r="248" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -12642,7 +12664,7 @@
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
     </row>
-    <row r="249" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -12669,7 +12691,7 @@
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
     </row>
-    <row r="250" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -12696,7 +12718,7 @@
       <c r="X250" s="5"/>
       <c r="Y250" s="5"/>
     </row>
-    <row r="251" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -12723,7 +12745,7 @@
       <c r="X251" s="5"/>
       <c r="Y251" s="5"/>
     </row>
-    <row r="252" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -12750,7 +12772,7 @@
       <c r="X252" s="5"/>
       <c r="Y252" s="5"/>
     </row>
-    <row r="253" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -12777,7 +12799,7 @@
       <c r="X253" s="5"/>
       <c r="Y253" s="5"/>
     </row>
-    <row r="254" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -12804,7 +12826,7 @@
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
     </row>
-    <row r="255" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -12831,7 +12853,7 @@
       <c r="X255" s="5"/>
       <c r="Y255" s="5"/>
     </row>
-    <row r="256" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -12858,7 +12880,7 @@
       <c r="X256" s="5"/>
       <c r="Y256" s="5"/>
     </row>
-    <row r="257" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -12885,7 +12907,7 @@
       <c r="X257" s="5"/>
       <c r="Y257" s="5"/>
     </row>
-    <row r="258" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -12912,7 +12934,7 @@
       <c r="X258" s="5"/>
       <c r="Y258" s="5"/>
     </row>
-    <row r="259" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -12939,7 +12961,7 @@
       <c r="X259" s="5"/>
       <c r="Y259" s="5"/>
     </row>
-    <row r="260" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -12966,7 +12988,7 @@
       <c r="X260" s="5"/>
       <c r="Y260" s="5"/>
     </row>
-    <row r="261" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -12993,7 +13015,7 @@
       <c r="X261" s="5"/>
       <c r="Y261" s="5"/>
     </row>
-    <row r="262" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -13020,7 +13042,7 @@
       <c r="X262" s="5"/>
       <c r="Y262" s="5"/>
     </row>
-    <row r="263" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -13047,7 +13069,7 @@
       <c r="X263" s="5"/>
       <c r="Y263" s="5"/>
     </row>
-    <row r="264" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -13074,7 +13096,7 @@
       <c r="X264" s="5"/>
       <c r="Y264" s="5"/>
     </row>
-    <row r="265" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -13101,7 +13123,7 @@
       <c r="X265" s="5"/>
       <c r="Y265" s="5"/>
     </row>
-    <row r="266" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -13128,7 +13150,7 @@
       <c r="X266" s="5"/>
       <c r="Y266" s="5"/>
     </row>
-    <row r="267" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -13155,7 +13177,7 @@
       <c r="X267" s="5"/>
       <c r="Y267" s="5"/>
     </row>
-    <row r="268" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -13182,7 +13204,7 @@
       <c r="X268" s="5"/>
       <c r="Y268" s="5"/>
     </row>
-    <row r="269" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -13209,7 +13231,7 @@
       <c r="X269" s="5"/>
       <c r="Y269" s="5"/>
     </row>
-    <row r="270" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -13236,7 +13258,7 @@
       <c r="X270" s="5"/>
       <c r="Y270" s="5"/>
     </row>
-    <row r="271" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -13263,7 +13285,7 @@
       <c r="X271" s="5"/>
       <c r="Y271" s="5"/>
     </row>
-    <row r="272" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -13290,7 +13312,7 @@
       <c r="X272" s="5"/>
       <c r="Y272" s="5"/>
     </row>
-    <row r="273" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -13317,7 +13339,7 @@
       <c r="X273" s="5"/>
       <c r="Y273" s="5"/>
     </row>
-    <row r="274" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -13344,7 +13366,7 @@
       <c r="X274" s="5"/>
       <c r="Y274" s="5"/>
     </row>
-    <row r="275" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -13371,7 +13393,7 @@
       <c r="X275" s="5"/>
       <c r="Y275" s="5"/>
     </row>
-    <row r="276" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -13398,7 +13420,7 @@
       <c r="X276" s="5"/>
       <c r="Y276" s="5"/>
     </row>
-    <row r="277" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -13425,7 +13447,7 @@
       <c r="X277" s="5"/>
       <c r="Y277" s="5"/>
     </row>
-    <row r="278" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -13452,7 +13474,7 @@
       <c r="X278" s="5"/>
       <c r="Y278" s="5"/>
     </row>
-    <row r="279" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -13479,7 +13501,7 @@
       <c r="X279" s="5"/>
       <c r="Y279" s="5"/>
     </row>
-    <row r="280" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -13506,7 +13528,7 @@
       <c r="X280" s="5"/>
       <c r="Y280" s="5"/>
     </row>
-    <row r="281" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -13533,7 +13555,7 @@
       <c r="X281" s="5"/>
       <c r="Y281" s="5"/>
     </row>
-    <row r="282" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -13560,7 +13582,7 @@
       <c r="X282" s="5"/>
       <c r="Y282" s="5"/>
     </row>
-    <row r="283" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -13587,7 +13609,7 @@
       <c r="X283" s="5"/>
       <c r="Y283" s="5"/>
     </row>
-    <row r="284" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -13614,7 +13636,7 @@
       <c r="X284" s="5"/>
       <c r="Y284" s="5"/>
     </row>
-    <row r="285" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -13641,7 +13663,7 @@
       <c r="X285" s="5"/>
       <c r="Y285" s="5"/>
     </row>
-    <row r="286" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -13668,7 +13690,7 @@
       <c r="X286" s="5"/>
       <c r="Y286" s="5"/>
     </row>
-    <row r="287" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -13695,7 +13717,7 @@
       <c r="X287" s="5"/>
       <c r="Y287" s="5"/>
     </row>
-    <row r="288" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -13722,7 +13744,7 @@
       <c r="X288" s="5"/>
       <c r="Y288" s="5"/>
     </row>
-    <row r="289" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -13749,7 +13771,7 @@
       <c r="X289" s="5"/>
       <c r="Y289" s="5"/>
     </row>
-    <row r="290" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -13776,7 +13798,7 @@
       <c r="X290" s="5"/>
       <c r="Y290" s="5"/>
     </row>
-    <row r="291" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -13803,7 +13825,7 @@
       <c r="X291" s="5"/>
       <c r="Y291" s="5"/>
     </row>
-    <row r="292" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -13830,7 +13852,7 @@
       <c r="X292" s="5"/>
       <c r="Y292" s="5"/>
     </row>
-    <row r="293" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -13857,7 +13879,7 @@
       <c r="X293" s="5"/>
       <c r="Y293" s="5"/>
     </row>
-    <row r="294" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -13884,713 +13906,830 @@
       <c r="X294" s="5"/>
       <c r="Y294" s="5"/>
     </row>
-    <row r="295" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
@@ -14605,123 +14744,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
